--- a/EnergyScope_LCA-ANNE_20_02_25/case_studies/SA_FINAL_03-03-2025/2025/output/LCA_Operation_final.xlsx
+++ b/EnergyScope_LCA-ANNE_20_02_25/case_studies/SA_FINAL_03-03-2025/2025/output/LCA_Operation_final.xlsx
@@ -582,52 +582,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.468041102848548e-08</v>
+        <v>7.707018418139337e-08</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001249999999999896</v>
+        <v>0.0001289999999999832</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001141556782208322</v>
+        <v>0.001178086599238932</v>
       </c>
       <c r="E3" t="n">
-        <v>3.0371894859262e-09</v>
+        <v>3.13437954947569e-09</v>
       </c>
       <c r="F3" t="n">
-        <v>1.738173574228058e-08</v>
+        <v>1.793795128603271e-08</v>
       </c>
       <c r="G3" t="n">
-        <v>2.015027482549223e-07</v>
+        <v>2.0795083619907e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>8.924244389222058e-15</v>
+        <v>9.209820209676727e-15</v>
       </c>
       <c r="I3" t="n">
-        <v>2.311287041453603e-13</v>
+        <v>2.385248226780005e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>1.209542700564526e-06</v>
+        <v>1.248248066982532e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>6.67105279166922e-05</v>
+        <v>6.884526481002309e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>1.949271946486034e-10</v>
+        <v>2.011648648773492e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>7.061435933718167e-13</v>
+        <v>7.287401883596803e-13</v>
       </c>
       <c r="N3" t="n">
-        <v>7.56661359146377e-08</v>
+        <v>7.808745226390241e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>7.804453184660556e-06</v>
+        <v>8.054195686569313e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0003956975168490128</v>
+        <v>0.0004083598373881619</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.505139380520625e-12</v>
+        <v>2.585303840697162e-12</v>
       </c>
     </row>
     <row r="4">
@@ -747,52 +747,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.086479269749198e-10</v>
+        <v>-4.708076835579857e-10</v>
       </c>
       <c r="C6" t="n">
-        <v>3e-06</v>
+        <v>1.3e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.708703902478623e-05</v>
+        <v>-0.000117377169107407</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.030886806561812e-12</v>
+        <v>-1.746717616176785e-11</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.341140318492779e-11</v>
+        <v>-1.014494138013537e-10</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.259616236912136e-10</v>
+        <v>-9.791670359952589e-10</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.414723469415848e-17</v>
+        <v>-1.479713503413534e-16</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.325059626326679e-15</v>
+        <v>-5.741925047415606e-15</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.704863036231709e-09</v>
+        <v>-1.172107315700407e-08</v>
       </c>
       <c r="K6" t="n">
-        <v>-3.38172856307718e-07</v>
+        <v>-1.465415710666778e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>-9.480800557054853e-13</v>
+        <v>-4.108346908057102e-12</v>
       </c>
       <c r="M6" t="n">
-        <v>-2.11251920194307e-15</v>
+        <v>-9.154249875086634e-15</v>
       </c>
       <c r="N6" t="n">
-        <v>-6.320553001726755e-11</v>
+        <v>-2.73890630074826e-10</v>
       </c>
       <c r="O6" t="n">
-        <v>-1.352897822379988e-08</v>
+        <v>-5.86255723031328e-08</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.301890567052846e-07</v>
+        <v>-9.974859123895662e-07</v>
       </c>
       <c r="Q6" t="n">
-        <v>-1.901482961621918e-15</v>
+        <v>-8.239759500361641e-15</v>
       </c>
     </row>
     <row r="7">
@@ -912,52 +912,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.505760268597125e-08</v>
+        <v>1.176951175864531e-07</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001099999999999679</v>
+        <v>0.000198999999999966</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002699772772160271</v>
+        <v>0.004884134378726898</v>
       </c>
       <c r="E9" t="n">
-        <v>1.317385514482099e-09</v>
+        <v>2.383270158017903e-09</v>
       </c>
       <c r="F9" t="n">
-        <v>3.645898038260174e-08</v>
+        <v>6.595760996489656e-08</v>
       </c>
       <c r="G9" t="n">
-        <v>2.924538511139672e-07</v>
+        <v>5.290756033789681e-07</v>
       </c>
       <c r="H9" t="n">
-        <v>1.009915258430462e-14</v>
+        <v>1.827028512978965e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>7.428114675688216e-13</v>
+        <v>1.343813473147394e-12</v>
       </c>
       <c r="J9" t="n">
-        <v>1.365159295481223e-07</v>
+        <v>2.469697270916328e-07</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001334430885909062</v>
+        <v>0.0002414106784508503</v>
       </c>
       <c r="L9" t="n">
-        <v>1.45979127968971e-10</v>
+        <v>2.640895133257157e-10</v>
       </c>
       <c r="M9" t="n">
-        <v>6.349370316880402e-13</v>
+        <v>1.148658811872139e-12</v>
       </c>
       <c r="N9" t="n">
-        <v>6.460226104846415e-08</v>
+        <v>1.168713631695083e-07</v>
       </c>
       <c r="O9" t="n">
-        <v>1.111460065894724e-05</v>
+        <v>2.010732301027971e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>2.047585283282733e-05</v>
+        <v>3.704267921575574e-05</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.034186934901943e-13</v>
+        <v>7.298210909505303e-13</v>
       </c>
     </row>
     <row r="10">
@@ -967,52 +967,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.436777229263563e-08</v>
+        <v>9.644218943845244e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005879999999999969</v>
+        <v>0.0008809999999999649</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003051667711725192</v>
+        <v>0.004572311656513267</v>
       </c>
       <c r="E10" t="n">
-        <v>9.913542964684326e-10</v>
+        <v>1.485345468007923e-09</v>
       </c>
       <c r="F10" t="n">
-        <v>3.703481336294162e-08</v>
+        <v>5.548923566794293e-08</v>
       </c>
       <c r="G10" t="n">
-        <v>2.478660704265361e-07</v>
+        <v>3.713775647036917e-07</v>
       </c>
       <c r="H10" t="n">
-        <v>1.581749044823724e-14</v>
+        <v>2.369933517839546e-14</v>
       </c>
       <c r="I10" t="n">
-        <v>3.84899883751261e-13</v>
+        <v>5.766952339878388e-13</v>
       </c>
       <c r="J10" t="n">
-        <v>1.020997492260265e-06</v>
+        <v>1.529759848097385e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001973058190752093</v>
+        <v>0.0002956231744987303</v>
       </c>
       <c r="L10" t="n">
-        <v>4.304162963020598e-11</v>
+        <v>6.448924439491524e-11</v>
       </c>
       <c r="M10" t="n">
-        <v>1.257133269201722e-12</v>
+        <v>1.883561922052175e-12</v>
       </c>
       <c r="N10" t="n">
-        <v>1.150899255502136e-07</v>
+        <v>1.724391571594127e-07</v>
       </c>
       <c r="O10" t="n">
-        <v>6.432639744171363e-06</v>
+        <v>9.638019752746217e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0001980749274938735</v>
+        <v>0.0002967755291192118</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.030201958670589e-12</v>
+        <v>4.54014953331411e-12</v>
       </c>
     </row>
     <row r="11">
@@ -1022,52 +1022,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.133362610462919e-06</v>
+        <v>1.789347427410372e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002074999999999973</v>
+        <v>0.003275999999999955</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0502029695221416</v>
+        <v>0.07926020633953532</v>
       </c>
       <c r="E11" t="n">
-        <v>1.795035337164405e-08</v>
+        <v>2.833993139542451e-08</v>
       </c>
       <c r="F11" t="n">
-        <v>6.62969258967975e-07</v>
+        <v>1.046692671026065e-06</v>
       </c>
       <c r="G11" t="n">
-        <v>5.227645913736109e-06</v>
+        <v>8.253382175132282e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>1.824295018130909e-13</v>
+        <v>2.880188182841858e-13</v>
       </c>
       <c r="I11" t="n">
-        <v>1.379332499355854e-11</v>
+        <v>2.177683502597482e-11</v>
       </c>
       <c r="J11" t="n">
-        <v>2.50549514582009e-06</v>
+        <v>3.955663661545354e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002520021529797069</v>
+        <v>0.00397859784656154</v>
       </c>
       <c r="L11" t="n">
-        <v>1.88807918716865e-09</v>
+        <v>2.980890321525057e-09</v>
       </c>
       <c r="M11" t="n">
-        <v>1.192558075384932e-11</v>
+        <v>1.882804942149897e-11</v>
       </c>
       <c r="N11" t="n">
-        <v>1.08387311508492e-06</v>
+        <v>1.711213650611179e-06</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0001414406845561011</v>
+        <v>0.000223305871135319</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0003823540604237721</v>
+        <v>0.0006036587479268802</v>
       </c>
       <c r="Q11" t="n">
-        <v>7.526594895768575e-12</v>
+        <v>1.188295174869293e-11</v>
       </c>
     </row>
     <row r="12">
@@ -1132,52 +1132,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.908888432539635</v>
+        <v>9.908884913387428</v>
       </c>
       <c r="C13" t="n">
-        <v>850.342392</v>
+        <v>850.3420900000001</v>
       </c>
       <c r="D13" t="n">
-        <v>38.06674180568238</v>
+        <v>38.06672828623876</v>
       </c>
       <c r="E13" t="n">
-        <v>2.126564792337662e-05</v>
+        <v>2.126564037085927e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>5.078511050132331</v>
+        <v>5.07850924649376</v>
       </c>
       <c r="G13" t="n">
-        <v>55.78375160830478</v>
+        <v>55.7837317966464</v>
       </c>
       <c r="H13" t="n">
-        <v>2.286036797439594e-09</v>
+        <v>2.286035985551208e-09</v>
       </c>
       <c r="I13" t="n">
-        <v>8.189049663997227e-07</v>
+        <v>8.189046755647578e-07</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1389864417094983</v>
+        <v>0.1389863923483165</v>
       </c>
       <c r="K13" t="n">
-        <v>4.884900398593528</v>
+        <v>4.884898663715984</v>
       </c>
       <c r="L13" t="n">
-        <v>3.559412763410227e-06</v>
+        <v>3.559411499281019e-06</v>
       </c>
       <c r="M13" t="n">
-        <v>3.968511287195794e-06</v>
+        <v>3.968509877774813e-06</v>
       </c>
       <c r="N13" t="n">
-        <v>13.36266755372631</v>
+        <v>13.36266280796079</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1754312051246355</v>
+        <v>0.1754311428200575</v>
       </c>
       <c r="P13" t="n">
-        <v>29.48664701167155</v>
+        <v>29.48663653945767</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.045614280816955e-07</v>
+        <v>5.045612488861707e-07</v>
       </c>
     </row>
     <row r="14">
@@ -1187,52 +1187,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.963951988278558e-08</v>
+        <v>2.714356031371076e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>3.799999999999733e-05</v>
+        <v>0.0003479999999999993</v>
       </c>
       <c r="D14" t="n">
-        <v>1.07514356134462e-06</v>
+        <v>9.846051561788249e-06</v>
       </c>
       <c r="E14" t="n">
-        <v>9.714297473394217e-13</v>
+        <v>8.896251370372154e-12</v>
       </c>
       <c r="F14" t="n">
-        <v>7.859277654858264e-09</v>
+        <v>7.197443747081219e-08</v>
       </c>
       <c r="G14" t="n">
-        <v>1.495252249165768e-07</v>
+        <v>1.369336270288744e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>6.957849593979593e-17</v>
+        <v>6.371925417644905e-16</v>
       </c>
       <c r="I14" t="n">
-        <v>1.25264872929596e-14</v>
+        <v>1.147162520513221e-13</v>
       </c>
       <c r="J14" t="n">
-        <v>6.348998367397726e-09</v>
+        <v>5.814345873301473e-08</v>
       </c>
       <c r="K14" t="n">
-        <v>2.231456844078202e-07</v>
+        <v>2.043544688787545e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>1.62596477380264e-13</v>
+        <v>1.489041424429888e-12</v>
       </c>
       <c r="M14" t="n">
-        <v>1.737168670894992e-13</v>
+        <v>1.590880782819733e-12</v>
       </c>
       <c r="N14" t="n">
-        <v>2.146671027392882e-08</v>
+        <v>1.965898730349405e-07</v>
       </c>
       <c r="O14" t="n">
-        <v>8.013820783806527e-09</v>
+        <v>7.338972717802269e-08</v>
       </c>
       <c r="P14" t="n">
-        <v>1.346970765185917e-06</v>
+        <v>1.233541648117714e-05</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.304872075145304e-14</v>
+        <v>2.110777584606896e-13</v>
       </c>
     </row>
     <row r="15">
@@ -1242,52 +1242,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.375567709710377</v>
+        <v>6.375568438492115</v>
       </c>
       <c r="C15" t="n">
-        <v>5616.37903</v>
+        <v>5616.379672</v>
       </c>
       <c r="D15" t="n">
-        <v>2215.847011634806</v>
+        <v>2215.847264925009</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0001921696013913297</v>
+        <v>0.0001921696233579533</v>
       </c>
       <c r="F15" t="n">
-        <v>3.192237048320166</v>
+        <v>3.192237413220072</v>
       </c>
       <c r="G15" t="n">
-        <v>36.13254376286285</v>
+        <v>36.13254789312062</v>
       </c>
       <c r="H15" t="n">
-        <v>4.952045593036319e-07</v>
+        <v>4.952046159097344e-07</v>
       </c>
       <c r="I15" t="n">
-        <v>2.449968084707872e-05</v>
+        <v>2.449968364760108e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.09561103230837539</v>
+        <v>0.09561104323753143</v>
       </c>
       <c r="K15" t="n">
-        <v>7.327551172405505</v>
+        <v>7.327552010007068</v>
       </c>
       <c r="L15" t="n">
-        <v>6.826320432053181e-05</v>
+        <v>6.826321212359798e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0001041180904374296</v>
+        <v>0.0001041181023390149</v>
       </c>
       <c r="N15" t="n">
-        <v>8.660484424876216</v>
+        <v>8.660485414843412</v>
       </c>
       <c r="O15" t="n">
-        <v>1.332400925529505</v>
+        <v>1.332401077834289</v>
       </c>
       <c r="P15" t="n">
-        <v>17.01187843062836</v>
+        <v>17.01188037523109</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0002075221236202822</v>
+        <v>0.0002075221473418299</v>
       </c>
     </row>
     <row r="16">
@@ -1297,52 +1297,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4.667102103006067e-10</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3.829984639459588e-07</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3.384934575770638e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.175012426492755e-10</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.552703341952101e-09</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>7.592033177336472e-17</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3.788900278688824e-15</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.684122185520364e-11</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.290697443280597e-09</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.202409116137601e-14</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2.297330480422015e-14</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>5.924593356700054e-10</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2.346932048024275e-10</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.996524688698176e-09</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>3.65535863317524e-14</v>
       </c>
     </row>
     <row r="17">
@@ -1352,52 +1352,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.073825959280478e-10</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>9.999999999999551e-07</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.48880430486648e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>8.085389053784432e-13</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.577750947861842e-12</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.274371942110671e-11</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.097273885544942e-16</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3.320667748980633e-14</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>4.0227610842203e-10</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>3.083011132430117e-08</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2.872122130625288e-13</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.968271784301827e-13</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.718103282170931e-11</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>5.605975024421609e-09</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>7.157617784053954e-08</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>8.73133468867794e-13</v>
       </c>
     </row>
     <row r="18">
@@ -1407,52 +1407,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.063578906951951e-10</v>
+        <v>2.127157813903903e-10</v>
       </c>
       <c r="C18" t="n">
-        <v>9.999999999999551e-07</v>
+        <v>1.99999999999991e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>5.396255788355391e-06</v>
+        <v>1.079251157671078e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>8.085389053784432e-13</v>
+        <v>1.617077810756886e-12</v>
       </c>
       <c r="F18" t="n">
-        <v>6.562179655867859e-12</v>
+        <v>1.312435931173572e-11</v>
       </c>
       <c r="G18" t="n">
-        <v>7.253285304973089e-11</v>
+        <v>1.450657060994618e-10</v>
       </c>
       <c r="H18" t="n">
-        <v>1.083217354445211e-16</v>
+        <v>2.166434708890421e-16</v>
       </c>
       <c r="I18" t="n">
-        <v>3.264503302383228e-14</v>
+        <v>6.529006604766456e-14</v>
       </c>
       <c r="J18" t="n">
-        <v>4.0227610842203e-10</v>
+        <v>8.045522168440599e-10</v>
       </c>
       <c r="K18" t="n">
-        <v>3.083011132430117e-08</v>
+        <v>6.166022264860235e-08</v>
       </c>
       <c r="L18" t="n">
-        <v>2.872122130625288e-13</v>
+        <v>5.744244261250576e-13</v>
       </c>
       <c r="M18" t="n">
-        <v>1.933948757679974e-13</v>
+        <v>3.867897515359948e-13</v>
       </c>
       <c r="N18" t="n">
-        <v>3.711759495911906e-11</v>
+        <v>7.423518991823812e-11</v>
       </c>
       <c r="O18" t="n">
-        <v>5.605975024421609e-09</v>
+        <v>1.121195004884322e-08</v>
       </c>
       <c r="P18" t="n">
-        <v>7.157617784053954e-08</v>
+        <v>1.431523556810791e-07</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.73133468867794e-13</v>
+        <v>1.746266937735588e-12</v>
       </c>
     </row>
     <row r="19">
@@ -1462,52 +1462,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.621308764693458e-10</v>
+        <v>1.386392629408038e-09</v>
       </c>
       <c r="C19" t="n">
-        <v>1e-06</v>
+        <v>3e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>5.121042192520733e-07</v>
+        <v>1.53631265775622e-06</v>
       </c>
       <c r="E19" t="n">
-        <v>4.53924057230787e-14</v>
+        <v>1.361772171692361e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>2.143591701597744e-10</v>
+        <v>6.430775104793232e-10</v>
       </c>
       <c r="G19" t="n">
-        <v>2.515866736974327e-09</v>
+        <v>7.547600210922982e-09</v>
       </c>
       <c r="H19" t="n">
-        <v>7.736249168555712e-17</v>
+        <v>2.320874750566714e-16</v>
       </c>
       <c r="I19" t="n">
-        <v>4.612946517874824e-15</v>
+        <v>1.383883955362447e-14</v>
       </c>
       <c r="J19" t="n">
-        <v>2.258429397116903e-11</v>
+        <v>6.77528819135071e-11</v>
       </c>
       <c r="K19" t="n">
-        <v>1.730841784373179e-09</v>
+        <v>5.192525353119539e-09</v>
       </c>
       <c r="L19" t="n">
-        <v>1.61244600813061e-14</v>
+        <v>4.837338024391829e-14</v>
       </c>
       <c r="M19" t="n">
-        <v>2.76374045273582e-14</v>
+        <v>8.291221358207462e-14</v>
       </c>
       <c r="N19" t="n">
-        <v>5.842335184996096e-10</v>
+        <v>1.752700555498829e-09</v>
       </c>
       <c r="O19" t="n">
-        <v>3.147265902596061e-10</v>
+        <v>9.441797707788184e-10</v>
       </c>
       <c r="P19" t="n">
-        <v>4.018377944502594e-09</v>
+        <v>1.205513383350778e-08</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.901882693040624e-14</v>
+        <v>1.470564807912187e-13</v>
       </c>
     </row>
     <row r="20">
@@ -1517,52 +1517,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1186181665746096</v>
+        <v>0.1186181601789589</v>
       </c>
       <c r="C20" t="n">
-        <v>37.093385</v>
+        <v>37.093383</v>
       </c>
       <c r="D20" t="n">
-        <v>877.7318496975265</v>
+        <v>877.7318023720076</v>
       </c>
       <c r="E20" t="n">
-        <v>0.003481982602071591</v>
+        <v>0.003481982414330159</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02653542777363853</v>
+        <v>0.02653542634290215</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2074185495410525</v>
+        <v>0.2074185383574655</v>
       </c>
       <c r="H20" t="n">
-        <v>3.341785359710635e-08</v>
+        <v>3.341785179528354e-08</v>
       </c>
       <c r="I20" t="n">
-        <v>2.117782549816571e-06</v>
+        <v>2.117782435630036e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>2.698237035383498</v>
+        <v>2.698236889900036</v>
       </c>
       <c r="K20" t="n">
-        <v>318.6894459006894</v>
+        <v>318.6894287176016</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00166603273174028</v>
+        <v>0.001666032641911178</v>
       </c>
       <c r="M20" t="n">
-        <v>6.106572459487308e-06</v>
+        <v>6.106572130233322e-06</v>
       </c>
       <c r="N20" t="n">
-        <v>0.09334050374860585</v>
+        <v>0.09334049871587544</v>
       </c>
       <c r="O20" t="n">
-        <v>18.34967690691365</v>
+        <v>18.34967591753634</v>
       </c>
       <c r="P20" t="n">
-        <v>470.3581021838827</v>
+        <v>470.358076823129</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.094781528934662e-05</v>
+        <v>2.094781415988296e-05</v>
       </c>
     </row>
     <row r="21">
@@ -1572,52 +1572,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.972168638346243e-09</v>
+        <v>6.961036093682259e-09</v>
       </c>
       <c r="C21" t="n">
-        <v>1e-05</v>
+        <v>1.399999999999501e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>1.417017831475038e-05</v>
+        <v>1.983824964064347e-05</v>
       </c>
       <c r="E21" t="n">
-        <v>5.409707575658999e-11</v>
+        <v>7.573590605919899e-11</v>
       </c>
       <c r="F21" t="n">
-        <v>1.271374976743069e-09</v>
+        <v>1.779924967439662e-09</v>
       </c>
       <c r="G21" t="n">
-        <v>1.881317792947431e-08</v>
+        <v>2.633844910125465e-08</v>
       </c>
       <c r="H21" t="n">
-        <v>5.886469890835544e-16</v>
+        <v>8.241057847166824e-16</v>
       </c>
       <c r="I21" t="n">
-        <v>3.838837060338083e-14</v>
+        <v>5.3743718844714e-14</v>
       </c>
       <c r="J21" t="n">
-        <v>4.191184260582483e-08</v>
+        <v>5.867657964813385e-08</v>
       </c>
       <c r="K21" t="n">
-        <v>4.949568121448774e-06</v>
+        <v>6.929395370025815e-06</v>
       </c>
       <c r="L21" t="n">
-        <v>2.588007744316699e-11</v>
+        <v>3.623210842042088e-11</v>
       </c>
       <c r="M21" t="n">
-        <v>1.33677913778625e-13</v>
+        <v>1.871490792900083e-13</v>
       </c>
       <c r="N21" t="n">
-        <v>3.660316998455089e-09</v>
+        <v>5.124443797835299e-09</v>
       </c>
       <c r="O21" t="n">
-        <v>2.851382264071321e-07</v>
+        <v>3.991935169698427e-07</v>
       </c>
       <c r="P21" t="n">
-        <v>7.306151036470557e-06</v>
+        <v>1.022861145105513e-05</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.592814963596806e-13</v>
+        <v>5.029940949033736e-13</v>
       </c>
     </row>
     <row r="22">
@@ -1682,52 +1682,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.100356625933715</v>
+        <v>6.100356562932578</v>
       </c>
       <c r="C23" t="n">
-        <v>10360.736147</v>
+        <v>10360.73604</v>
       </c>
       <c r="D23" t="n">
-        <v>12953.99166596275</v>
+        <v>12953.99153218103</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04929311775421579</v>
+        <v>0.04929311724514351</v>
       </c>
       <c r="F23" t="n">
-        <v>1.045993557922402</v>
+        <v>1.045993547119954</v>
       </c>
       <c r="G23" t="n">
-        <v>23.674247895429</v>
+        <v>23.67424765093435</v>
       </c>
       <c r="H23" t="n">
-        <v>6.263937563240622e-07</v>
+        <v>6.263937498550111e-07</v>
       </c>
       <c r="I23" t="n">
-        <v>4.682197117680651e-05</v>
+        <v>4.682197069325487e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>38.18902891996522</v>
+        <v>38.18902852556987</v>
       </c>
       <c r="K23" t="n">
-        <v>4509.853814615401</v>
+        <v>4509.853768040104</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02358144507431146</v>
+        <v>0.02358144483077523</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0001422458016390589</v>
+        <v>0.0001422458001700223</v>
       </c>
       <c r="N23" t="n">
-        <v>4.48889184993158</v>
+        <v>4.488891803572766</v>
       </c>
       <c r="O23" t="n">
-        <v>259.8228362442698</v>
+        <v>259.822833560962</v>
       </c>
       <c r="P23" t="n">
-        <v>6657.189224082589</v>
+        <v>6657.189155330791</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.0003309977803456214</v>
+        <v>0.0003309977769272579</v>
       </c>
     </row>
     <row r="24">
@@ -1737,52 +1737,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.898553302032031e-09</v>
+        <v>5.19807106937604e-09</v>
       </c>
       <c r="C24" t="n">
-        <v>6.000000000000001e-06</v>
+        <v>8e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>1.078998822498118e-05</v>
+        <v>1.438665096664157e-05</v>
       </c>
       <c r="E24" t="n">
-        <v>4.111218607266587e-11</v>
+        <v>5.481624809688782e-11</v>
       </c>
       <c r="F24" t="n">
-        <v>6.917769851130753e-10</v>
+        <v>9.223693134841002e-10</v>
       </c>
       <c r="G24" t="n">
-        <v>1.41577446316655e-08</v>
+        <v>1.887699284222067e-08</v>
       </c>
       <c r="H24" t="n">
-        <v>4.834999922805501e-16</v>
+        <v>6.446666563740667e-16</v>
       </c>
       <c r="I24" t="n">
-        <v>3.538704280994294e-14</v>
+        <v>4.718272374659058e-14</v>
       </c>
       <c r="J24" t="n">
-        <v>3.185098720516113e-08</v>
+        <v>4.246798294021483e-08</v>
       </c>
       <c r="K24" t="n">
-        <v>3.761375981764375e-06</v>
+        <v>5.015167975685832e-06</v>
       </c>
       <c r="L24" t="n">
-        <v>1.966775083271189e-11</v>
+        <v>2.622366777694918e-11</v>
       </c>
       <c r="M24" t="n">
-        <v>1.084588543510612e-13</v>
+        <v>1.446118058014149e-13</v>
       </c>
       <c r="N24" t="n">
-        <v>2.890640873766209e-09</v>
+        <v>3.854187831688278e-09</v>
       </c>
       <c r="O24" t="n">
-        <v>2.167013424239866e-07</v>
+        <v>2.889351232319821e-07</v>
       </c>
       <c r="P24" t="n">
-        <v>5.552328896421288e-06</v>
+        <v>7.403105195228382e-06</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.760637378033316e-13</v>
+        <v>3.680849837377754e-13</v>
       </c>
     </row>
     <row r="25">
@@ -1792,52 +1792,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.255548373196667e-08</v>
+        <v>4.555234878351748e-08</v>
       </c>
       <c r="C25" t="n">
-        <v>7.099999999998961e-05</v>
+        <v>7.599999999999532e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>9.55221562555558e-05</v>
+        <v>0.0001022490686679275</v>
       </c>
       <c r="E25" t="n">
-        <v>3.635953641646921e-10</v>
+        <v>3.892006715002667e-10</v>
       </c>
       <c r="F25" t="n">
-        <v>7.344614380332119e-09</v>
+        <v>7.861840745144906e-09</v>
       </c>
       <c r="G25" t="n">
-        <v>1.631540823849987e-07</v>
+        <v>1.746438064966331e-07</v>
       </c>
       <c r="H25" t="n">
-        <v>4.540461792988481e-15</v>
+        <v>4.860212623481039e-15</v>
       </c>
       <c r="I25" t="n">
-        <v>3.378448187895505e-13</v>
+        <v>3.616367074367325e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>2.816895037251557e-07</v>
+        <v>3.015267927199105e-07</v>
       </c>
       <c r="K25" t="n">
-        <v>3.326553512461427e-05</v>
+        <v>3.560817844325209e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>1.739412011241804e-10</v>
+        <v>1.86190581485054e-10</v>
       </c>
       <c r="M25" t="n">
-        <v>1.028332925628272e-12</v>
+        <v>1.100750737292328e-12</v>
       </c>
       <c r="N25" t="n">
-        <v>3.135908174880816e-08</v>
+        <v>3.356746778745946e-08</v>
       </c>
       <c r="O25" t="n">
-        <v>1.916502405743221e-06</v>
+        <v>2.051467363894325e-06</v>
       </c>
       <c r="P25" t="n">
-        <v>4.910468743958801e-05</v>
+        <v>5.256276401984513e-05</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.441502261685976e-12</v>
+        <v>2.613439040678167e-12</v>
       </c>
     </row>
     <row r="26">
@@ -1847,52 +1847,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.148583005162924e-08</v>
+        <v>2.396496428835449e-08</v>
       </c>
       <c r="C26" t="n">
-        <v>2.599999999999372e-05</v>
+        <v>2.899999999999155e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>4.681335845140848e-05</v>
+        <v>5.221489981118377e-05</v>
       </c>
       <c r="E26" t="n">
-        <v>1.781355925928724e-10</v>
+        <v>1.986896994305016e-10</v>
       </c>
       <c r="F26" t="n">
-        <v>3.712338162448133e-09</v>
+        <v>4.140684873499634e-09</v>
       </c>
       <c r="G26" t="n">
-        <v>8.420425622109237e-08</v>
+        <v>9.392013193890603e-08</v>
       </c>
       <c r="H26" t="n">
-        <v>1.751453996322252e-15</v>
+        <v>1.953544842051645e-15</v>
       </c>
       <c r="I26" t="n">
-        <v>1.41925685511501e-13</v>
+        <v>1.583017261474355e-13</v>
       </c>
       <c r="J26" t="n">
-        <v>1.380060959128122e-07</v>
+        <v>1.539298762104367e-07</v>
       </c>
       <c r="K26" t="n">
-        <v>1.629742985841947e-05</v>
+        <v>1.817790253439004e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>8.521801326821714e-11</v>
+        <v>9.505086095300668e-11</v>
       </c>
       <c r="M26" t="n">
-        <v>5.062580538232045e-13</v>
+        <v>5.646724446489307e-13</v>
       </c>
       <c r="N26" t="n">
-        <v>1.33324039267077e-08</v>
+        <v>1.487075822594246e-08</v>
       </c>
       <c r="O26" t="n">
-        <v>9.389574891165158e-07</v>
+        <v>1.047298737860677e-06</v>
       </c>
       <c r="P26" t="n">
-        <v>2.405751322867238e-05</v>
+        <v>2.68333801396717e-05</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.202016625797858e-12</v>
+        <v>1.34071085185139e-12</v>
       </c>
     </row>
     <row r="27">
@@ -1902,52 +1902,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.548063483675412e-07</v>
+        <v>2.860469734547465e-07</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0002609999999999997</v>
+        <v>0.0002929999999999968</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001208088736006723</v>
+        <v>0.0013562068952106</v>
       </c>
       <c r="E27" t="n">
-        <v>4.723373046075306e-09</v>
+        <v>5.302483917624716e-09</v>
       </c>
       <c r="F27" t="n">
-        <v>5.021103877754398e-08</v>
+        <v>5.636718146291281e-08</v>
       </c>
       <c r="G27" t="n">
-        <v>7.213620304296756e-07</v>
+        <v>8.098048847352217e-07</v>
       </c>
       <c r="H27" t="n">
-        <v>4.868245389146701e-14</v>
+        <v>5.465118387049692e-14</v>
       </c>
       <c r="I27" t="n">
-        <v>3.271901633786502e-12</v>
+        <v>3.673054324518911e-12</v>
       </c>
       <c r="J27" t="n">
-        <v>3.659492804784727e-06</v>
+        <v>4.108166252114614e-06</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0004321704129798459</v>
+        <v>0.0004851568237666421</v>
       </c>
       <c r="L27" t="n">
-        <v>2.259686131717443e-09</v>
+        <v>2.536735772387756e-09</v>
       </c>
       <c r="M27" t="n">
-        <v>9.669508830462491e-12</v>
+        <v>1.085504248017426e-11</v>
       </c>
       <c r="N27" t="n">
-        <v>1.936227581539813e-07</v>
+        <v>2.173619468931646e-07</v>
       </c>
       <c r="O27" t="n">
-        <v>2.489596063899464e-05</v>
+        <v>2.794833895488643e-05</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0006379293414545483</v>
+        <v>0.0007161429005600798</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.11844271905955e-11</v>
+        <v>3.50078052369517e-11</v>
       </c>
     </row>
     <row r="28">
@@ -1957,52 +1957,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.57783995844718</v>
+        <v>4.701351535988599</v>
       </c>
       <c r="C28" t="n">
-        <v>13983.442148</v>
+        <v>14360.719863</v>
       </c>
       <c r="D28" t="n">
-        <v>213.3392398166412</v>
+        <v>219.09520033523</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01891154713401529</v>
+        <v>0.01942178668836253</v>
       </c>
       <c r="F28" t="n">
-        <v>2.401385706516189</v>
+        <v>2.466175856366215</v>
       </c>
       <c r="G28" t="n">
-        <v>25.47080856937051</v>
+        <v>26.15801908267241</v>
       </c>
       <c r="H28" t="n">
-        <v>2.212927443312103e-07</v>
+        <v>2.272632929303118e-07</v>
       </c>
       <c r="I28" t="n">
-        <v>2.555653768758645e-06</v>
+        <v>2.624606119975423e-06</v>
       </c>
       <c r="J28" t="n">
-        <v>1.024394004521969</v>
+        <v>1.052032480456238</v>
       </c>
       <c r="K28" t="n">
-        <v>156.5074597811789</v>
+        <v>160.7300808055125</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0001011027217920051</v>
+        <v>0.0001038305053702011</v>
       </c>
       <c r="M28" t="n">
-        <v>3.701267761857501e-05</v>
+        <v>3.801129142840615e-05</v>
       </c>
       <c r="N28" t="n">
-        <v>6.565504091339511</v>
+        <v>6.742643479137385</v>
       </c>
       <c r="O28" t="n">
-        <v>35.92596244937872</v>
+        <v>36.8952563384385</v>
       </c>
       <c r="P28" t="n">
-        <v>56.54083179268485</v>
+        <v>58.06632141084688</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.05317161243855e-06</v>
+        <v>1.081586517383862e-06</v>
       </c>
     </row>
     <row r="29">
@@ -2012,52 +2012,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.703377888516291e-08</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>9.999999999998096e-07</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>2.423979816128176e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.894846653556111e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>4.180407741162255e-09</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>8.321013252972704e-08</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.053535418483358e-16</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.041449016423711e-14</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.000244025029983e-08</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.550455442912187e-06</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>8.693495803304271e-13</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>8.287070894033722e-14</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>7.948021550321779e-09</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>3.569058175767541e-07</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>5.4820251964944e-07</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>2.18515318691236e-13</v>
       </c>
     </row>
     <row r="30">
@@ -2232,52 +2232,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.227398644617039e-08</v>
+        <v>9.595955918575069e-08</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0002809999999999402</v>
+        <v>0.0004329999999999748</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0003651179716334265</v>
+        <v>0.0005626195078907406</v>
       </c>
       <c r="E33" t="n">
-        <v>6.046940034847846e-10</v>
+        <v>9.317882687151324e-10</v>
       </c>
       <c r="F33" t="n">
-        <v>9.154019214010608e-08</v>
+        <v>1.410565950059504e-07</v>
       </c>
       <c r="G33" t="n">
-        <v>2.811975381457996e-07</v>
+        <v>4.33304391520107e-07</v>
       </c>
       <c r="H33" t="n">
-        <v>9.690476268797412e-15</v>
+        <v>1.493229973092501e-14</v>
       </c>
       <c r="I33" t="n">
-        <v>1.159438613711195e-13</v>
+        <v>1.786608255291904e-13</v>
       </c>
       <c r="J33" t="n">
-        <v>1.412426875721243e-06</v>
+        <v>2.176444260453355e-06</v>
       </c>
       <c r="K33" t="n">
-        <v>7.69875669069318e-05</v>
+        <v>0.0001186320870843652</v>
       </c>
       <c r="L33" t="n">
-        <v>1.032789883736816e-10</v>
+        <v>1.591452027253062e-10</v>
       </c>
       <c r="M33" t="n">
-        <v>3.276995206196384e-13</v>
+        <v>5.049604712751792e-13</v>
       </c>
       <c r="N33" t="n">
-        <v>6.974823122124585e-08</v>
+        <v>1.074768118106908e-07</v>
       </c>
       <c r="O33" t="n">
-        <v>2.329923970186758e-06</v>
+        <v>3.590238715626413e-06</v>
       </c>
       <c r="P33" t="n">
-        <v>2.200535577499429e-05</v>
+        <v>3.390860872090392e-05</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.560697658180176e-13</v>
+        <v>3.945843722392126e-13</v>
       </c>
     </row>
     <row r="34">
@@ -2342,28 +2342,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.816096515291534e-08</v>
+        <v>9.795662794768224e-08</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0002789999999999946</v>
+        <v>0.0003099999999999893</v>
       </c>
       <c r="D35" t="n">
-        <v>2.445937523041685e-07</v>
+        <v>2.717708358935164e-07</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>4.446188915123454e-08</v>
+        <v>4.940209905692652e-08</v>
       </c>
       <c r="G35" t="n">
-        <v>4.869091482192983e-07</v>
+        <v>5.410101646881011e-07</v>
       </c>
       <c r="H35" t="n">
-        <v>1.379341702678898e-14</v>
+        <v>1.532601891865419e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>9.628385859421736e-14</v>
+        <v>1.069820651046844e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2375,10 +2375,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>3.232628380863312e-13</v>
+        <v>3.591809312070293e-13</v>
       </c>
       <c r="N35" t="n">
-        <v>1.265285138639356e-07</v>
+        <v>1.40587237626593e-07</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2397,28 +2397,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.235861497064875e-07</v>
+        <v>4.101421156773871e-07</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0002429999999999746</v>
+        <v>0.0003079999999999892</v>
       </c>
       <c r="D36" t="n">
-        <v>8.505871777106322e-05</v>
+        <v>0.0001078110496851411</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>6.373848096352934e-08</v>
+        <v>8.078786887559014e-08</v>
       </c>
       <c r="G36" t="n">
-        <v>7.041318153085214e-07</v>
+        <v>8.924798317491345e-07</v>
       </c>
       <c r="H36" t="n">
-        <v>7.65390727082176e-14</v>
+        <v>9.701248721865291e-14</v>
       </c>
       <c r="I36" t="n">
-        <v>3.515629205012834e-13</v>
+        <v>4.456023848329333e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2430,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.574058398420392e-12</v>
+        <v>1.99510282598154e-12</v>
       </c>
       <c r="N36" t="n">
-        <v>1.806070199948351e-07</v>
+        <v>2.289175397465559e-07</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2452,52 +2452,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.874916544653472e-07</v>
+        <v>3.561399265723689e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0001989999999999833</v>
+        <v>0.0003779999999999691</v>
       </c>
       <c r="D37" t="n">
-        <v>0.002725960637257606</v>
+        <v>0.005177955381323505</v>
       </c>
       <c r="E37" t="n">
-        <v>2.85022875609257e-10</v>
+        <v>5.414002360819067e-10</v>
       </c>
       <c r="F37" t="n">
-        <v>9.025131201199289e-08</v>
+        <v>1.714321404046904e-07</v>
       </c>
       <c r="G37" t="n">
-        <v>1.029827997562658e-06</v>
+        <v>1.956155693862743e-06</v>
       </c>
       <c r="H37" t="n">
-        <v>2.211824394109915e-14</v>
+        <v>4.20135487926407e-14</v>
       </c>
       <c r="I37" t="n">
-        <v>1.270370018058222e-12</v>
+        <v>2.41306465741713e-12</v>
       </c>
       <c r="J37" t="n">
-        <v>8.611243479218921e-10</v>
+        <v>1.635703535248623e-09</v>
       </c>
       <c r="K37" t="n">
-        <v>4.277518851894738e-07</v>
+        <v>8.12513631163927e-07</v>
       </c>
       <c r="L37" t="n">
-        <v>2.194642285378013e-13</v>
+        <v>4.168717506898949e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>4.645366007906133e-12</v>
+        <v>8.823861060243833e-12</v>
       </c>
       <c r="N37" t="n">
-        <v>2.445560280376811e-07</v>
+        <v>4.645335607951944e-07</v>
       </c>
       <c r="O37" t="n">
-        <v>6.626897184424214e-06</v>
+        <v>1.258777455131839e-05</v>
       </c>
       <c r="P37" t="n">
-        <v>1.565287925712822e-07</v>
+        <v>2.973260482007277e-07</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.30941415726418e-15</v>
+        <v>4.386726389175187e-15</v>
       </c>
     </row>
     <row r="38">
@@ -2507,52 +2507,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.525652160445328e-07</v>
+        <v>4.972748196448929e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0004019999999999786</v>
+        <v>0.000566999999999961</v>
       </c>
       <c r="D38" t="n">
-        <v>1.743407094709127e-05</v>
+        <v>2.458984633582238e-05</v>
       </c>
       <c r="E38" t="n">
-        <v>7.431165792332438e-11</v>
+        <v>1.048127115485678e-10</v>
       </c>
       <c r="F38" t="n">
-        <v>1.829579102667135e-07</v>
+        <v>2.580525749284201e-07</v>
       </c>
       <c r="G38" t="n">
-        <v>1.993684847538391e-06</v>
+        <v>2.81198832973694e-06</v>
       </c>
       <c r="H38" t="n">
-        <v>3.355390498202565e-16</v>
+        <v>4.732603016121454e-16</v>
       </c>
       <c r="I38" t="n">
-        <v>1.171213789709414e-12</v>
+        <v>1.651935867575192e-12</v>
       </c>
       <c r="J38" t="n">
-        <v>5.129566283068468e-08</v>
+        <v>7.234985279850189e-08</v>
       </c>
       <c r="K38" t="n">
-        <v>2.43854828731801e-05</v>
+        <v>3.439444972411169e-05</v>
       </c>
       <c r="L38" t="n">
-        <v>6.245866953268366e-12</v>
+        <v>8.809469060953004e-12</v>
       </c>
       <c r="M38" t="n">
-        <v>1.041152425051145e-12</v>
+        <v>1.468491106975099e-12</v>
       </c>
       <c r="N38" t="n">
-        <v>5.916007080957691e-07</v>
+        <v>8.344218942544674e-07</v>
       </c>
       <c r="O38" t="n">
-        <v>9.850708571884675e-07</v>
+        <v>1.389390985138936e-06</v>
       </c>
       <c r="P38" t="n">
-        <v>9.768405724241262e-06</v>
+        <v>1.377782598419082e-05</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.245878005940104e-13</v>
+        <v>1.757245844199075e-13</v>
       </c>
     </row>
     <row r="39">
@@ -2562,52 +2562,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.364379363498556e-06</v>
+        <v>3.13974263654918e-06</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0002469999999999459</v>
+        <v>0.0003279999999999794</v>
       </c>
       <c r="D39" t="n">
-        <v>4.796634463614935e-05</v>
+        <v>6.369619854517993e-05</v>
       </c>
       <c r="E39" t="n">
-        <v>1.267541143094836e-10</v>
+        <v>1.683212530101908e-10</v>
       </c>
       <c r="F39" t="n">
-        <v>2.791274920504253e-07</v>
+        <v>3.706632283099344e-07</v>
       </c>
       <c r="G39" t="n">
-        <v>2.779476569862063e-06</v>
+        <v>3.690964837712141e-06</v>
       </c>
       <c r="H39" t="n">
-        <v>7.150737264524035e-14</v>
+        <v>9.495715881636639e-14</v>
       </c>
       <c r="I39" t="n">
-        <v>1.958607929479212e-13</v>
+        <v>2.600904456960655e-13</v>
       </c>
       <c r="J39" t="n">
-        <v>4.742922470903513e-08</v>
+        <v>6.29829380751658e-08</v>
       </c>
       <c r="K39" t="n">
-        <v>2.371329531563263e-06</v>
+        <v>3.148972009525797e-06</v>
       </c>
       <c r="L39" t="n">
-        <v>4.302986701450529e-12</v>
+        <v>5.714087603546535e-12</v>
       </c>
       <c r="M39" t="n">
-        <v>1.57985791669208e-11</v>
+        <v>2.097948974393049e-11</v>
       </c>
       <c r="N39" t="n">
-        <v>7.754273368002731e-07</v>
+        <v>1.029717273160038e-06</v>
       </c>
       <c r="O39" t="n">
-        <v>1.881523938591071e-06</v>
+        <v>2.498541910356145e-06</v>
       </c>
       <c r="P39" t="n">
-        <v>9.970676875868043e-06</v>
+        <v>1.324041301734911e-05</v>
       </c>
       <c r="Q39" t="n">
-        <v>8.735494127548107e-14</v>
+        <v>1.160017033941792e-13</v>
       </c>
     </row>
     <row r="40">
@@ -2672,52 +2672,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.557269678103976e-09</v>
+        <v>1.237755519214072e-08</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0001759999999999988</v>
+        <v>0.0003919999999999988</v>
       </c>
       <c r="D41" t="n">
-        <v>2.983812355248121e-05</v>
+        <v>6.645763882143567e-05</v>
       </c>
       <c r="E41" t="n">
-        <v>9.730309096395038e-11</v>
+        <v>2.167205207833448e-10</v>
       </c>
       <c r="F41" t="n">
-        <v>7.021446725044422e-10</v>
+        <v>1.56386767966899e-09</v>
       </c>
       <c r="G41" t="n">
-        <v>7.328283845300715e-09</v>
+        <v>1.632208674635165e-08</v>
       </c>
       <c r="H41" t="n">
-        <v>3.918346517142467e-15</v>
+        <v>8.727226333635526e-15</v>
       </c>
       <c r="I41" t="n">
-        <v>3.841432363480006e-14</v>
+        <v>8.555917536841864e-14</v>
       </c>
       <c r="J41" t="n">
-        <v>4.841165775701515e-08</v>
+        <v>1.078259650042614e-07</v>
       </c>
       <c r="K41" t="n">
-        <v>3.71022978197084e-06</v>
+        <v>8.26369360529872e-06</v>
       </c>
       <c r="L41" t="n">
-        <v>3.456436778450392e-11</v>
+        <v>7.698427370184992e-11</v>
       </c>
       <c r="M41" t="n">
-        <v>7.750509932435022e-14</v>
+        <v>1.726249939496898e-13</v>
       </c>
       <c r="N41" t="n">
-        <v>4.018533603309619e-09</v>
+        <v>8.950370298280548e-09</v>
       </c>
       <c r="O41" t="n">
-        <v>6.746474339260328e-07</v>
+        <v>1.502623830107988e-06</v>
       </c>
       <c r="P41" t="n">
-        <v>8.613788770016086e-06</v>
+        <v>1.918525680594499e-05</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.05076681876115e-10</v>
+        <v>2.340344278149843e-10</v>
       </c>
     </row>
     <row r="42">
@@ -2782,28 +2782,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.486622532427469</v>
+        <v>1.486626380283723</v>
       </c>
       <c r="C43" t="n">
-        <v>10471.267074</v>
+        <v>10471.294177</v>
       </c>
       <c r="D43" t="n">
-        <v>9.133726310854382</v>
+        <v>9.133749951869595</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7229873619074272</v>
+        <v>0.7229892332307666</v>
       </c>
       <c r="G43" t="n">
-        <v>7.855756510027478</v>
+        <v>7.855776843246676</v>
       </c>
       <c r="H43" t="n">
-        <v>5.170193059338896e-07</v>
+        <v>5.170206441457937e-07</v>
       </c>
       <c r="I43" t="n">
-        <v>1.976019235551983e-06</v>
+        <v>1.976024350123979e-06</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2815,10 +2815,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>8.138115044722877e-06</v>
+        <v>8.138136108776587e-06</v>
       </c>
       <c r="N43" t="n">
-        <v>2.232934044920396</v>
+        <v>2.232939824470377</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2892,28 +2892,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4.234254240318957e-08</v>
+        <v>6.57257374616669e-08</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0001339999999999887</v>
+        <v>0.0002079999999999809</v>
       </c>
       <c r="D45" t="n">
-        <v>1.174751355152561e-07</v>
+        <v>1.823494640833813e-07</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2.135445572138008e-08</v>
+        <v>3.314721485109718e-08</v>
       </c>
       <c r="G45" t="n">
-        <v>2.338560066716192e-07</v>
+        <v>3.630003685648987e-07</v>
       </c>
       <c r="H45" t="n">
-        <v>6.624795274514709e-15</v>
+        <v>1.028326430670932e-14</v>
       </c>
       <c r="I45" t="n">
-        <v>4.624386040008705e-14</v>
+        <v>7.178151465088087e-14</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2925,10 +2925,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1.552588541346436e-13</v>
+        <v>2.40998818358251e-13</v>
       </c>
       <c r="N45" t="n">
-        <v>6.076996723213717e-08</v>
+        <v>9.4329501375257e-08</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.864282343988157e-07</v>
+        <v>3.582085360948684e-07</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0001399999999999977</v>
+        <v>0.0002689999999999963</v>
       </c>
       <c r="D46" t="n">
-        <v>4.900502258415596e-05</v>
+        <v>9.415965053669997e-05</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>3.672175857981437e-08</v>
+        <v>7.055823612835781e-08</v>
       </c>
       <c r="G46" t="n">
-        <v>4.056726507950685e-07</v>
+        <v>7.794710218848124e-07</v>
       </c>
       <c r="H46" t="n">
-        <v>4.409658509938848e-14</v>
+        <v>8.472843851239669e-14</v>
       </c>
       <c r="I46" t="n">
-        <v>2.025465385604279e-13</v>
+        <v>3.891787062339662e-13</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2980,10 +2980,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>9.068649209007164e-13</v>
+        <v>1.742476169444953e-12</v>
       </c>
       <c r="N46" t="n">
-        <v>1.040534271575273e-07</v>
+        <v>1.999312278955353e-07</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3002,52 +3002,52 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.515591544836492e-07</v>
+        <v>4.154965810011115e-07</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0002669999999999694</v>
+        <v>0.0004409999999999792</v>
       </c>
       <c r="D47" t="n">
-        <v>0.003657444674109342</v>
+        <v>0.006040947944877637</v>
       </c>
       <c r="E47" t="n">
-        <v>3.824176270737155e-10</v>
+        <v>6.316336087622469e-10</v>
       </c>
       <c r="F47" t="n">
-        <v>1.210909563175949e-07</v>
+        <v>2.000041638054792e-07</v>
       </c>
       <c r="G47" t="n">
-        <v>1.381729021855384e-06</v>
+        <v>2.282181642839946e-06</v>
       </c>
       <c r="H47" t="n">
-        <v>2.967623684559444e-14</v>
+        <v>4.901580692474918e-14</v>
       </c>
       <c r="I47" t="n">
-        <v>1.704466305635854e-12</v>
+        <v>2.815242100320083e-12</v>
       </c>
       <c r="J47" t="n">
-        <v>1.155377893945418e-09</v>
+        <v>1.90832079112346e-09</v>
       </c>
       <c r="K47" t="n">
-        <v>5.739183585205313e-07</v>
+        <v>9.479325696912788e-07</v>
       </c>
       <c r="L47" t="n">
-        <v>2.944570302492017e-13</v>
+        <v>4.86350375804894e-13</v>
       </c>
       <c r="M47" t="n">
-        <v>6.232727256838694e-12</v>
+        <v>1.029450457028483e-11</v>
       </c>
       <c r="N47" t="n">
-        <v>3.281229119902455e-07</v>
+        <v>5.419558209277455e-07</v>
       </c>
       <c r="O47" t="n">
-        <v>8.891364564026186e-06</v>
+        <v>1.468573697653863e-05</v>
       </c>
       <c r="P47" t="n">
-        <v>2.10016018173523e-07</v>
+        <v>3.468803895675277e-07</v>
       </c>
       <c r="Q47" t="n">
-        <v>3.098560703464913e-15</v>
+        <v>5.117847454037899e-15</v>
       </c>
     </row>
     <row r="48">
@@ -3057,52 +3057,52 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5.382661588571626e-07</v>
+        <v>7.644682190150529e-07</v>
       </c>
       <c r="C48" t="n">
-        <v>0.000908999999999781</v>
+        <v>0.001290999999999849</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01894317764426765</v>
+        <v>0.02690389696232406</v>
       </c>
       <c r="E48" t="n">
-        <v>6.794621820003713e-09</v>
+        <v>9.650007447333201e-09</v>
       </c>
       <c r="F48" t="n">
-        <v>3.075517083177709e-07</v>
+        <v>4.367978607681975e-07</v>
       </c>
       <c r="G48" t="n">
-        <v>2.598176605203069e-06</v>
+        <v>3.690039601009436e-06</v>
       </c>
       <c r="H48" t="n">
-        <v>6.892194527257014e-14</v>
+        <v>9.788584306589559e-14</v>
       </c>
       <c r="I48" t="n">
-        <v>5.57101842671873e-12</v>
+        <v>7.912194487232973e-12</v>
       </c>
       <c r="J48" t="n">
-        <v>9.612410296874628e-07</v>
+        <v>1.36519490574991e-06</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0009582685853961009</v>
+        <v>0.001360973315452717</v>
       </c>
       <c r="L48" t="n">
-        <v>7.141881517841923e-10</v>
+        <v>1.014320026351492e-09</v>
       </c>
       <c r="M48" t="n">
-        <v>4.825612291968945e-12</v>
+        <v>6.853537369562905e-12</v>
       </c>
       <c r="N48" t="n">
-        <v>5.94675438567312e-07</v>
+        <v>8.445830486144059e-07</v>
       </c>
       <c r="O48" t="n">
-        <v>5.366404045319201e-05</v>
+        <v>7.621592544013143e-05</v>
       </c>
       <c r="P48" t="n">
-        <v>0.000147300772470187</v>
+        <v>0.0002092027472596645</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.878334124597226e-12</v>
+        <v>4.087931083449372e-12</v>
       </c>
     </row>
     <row r="49">
@@ -3112,52 +3112,52 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.3668619144688499</v>
+        <v>0.2609055251720968</v>
       </c>
       <c r="C49" t="n">
-        <v>418.3013040000001</v>
+        <v>297.488284</v>
       </c>
       <c r="D49" t="n">
-        <v>18.14103137113727</v>
+        <v>12.90157176414108</v>
       </c>
       <c r="E49" t="n">
-        <v>7.732503336251289e-05</v>
+        <v>5.499215820100983e-05</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1903769463723515</v>
+        <v>0.1353926238046604</v>
       </c>
       <c r="G49" t="n">
-        <v>2.074529779826852</v>
+        <v>1.475367870972709</v>
       </c>
       <c r="H49" t="n">
-        <v>3.491453285640342e-10</v>
+        <v>2.483058113085173e-10</v>
       </c>
       <c r="I49" t="n">
-        <v>1.218707103229492e-06</v>
+        <v>8.667223395467885e-07</v>
       </c>
       <c r="J49" t="n">
-        <v>0.05337572798910667</v>
+        <v>0.03795984754264622</v>
       </c>
       <c r="K49" t="n">
-        <v>25.37432657841156</v>
+        <v>18.04575983695056</v>
       </c>
       <c r="L49" t="n">
-        <v>6.499140027768169e-06</v>
+        <v>4.622070253781625e-06</v>
       </c>
       <c r="M49" t="n">
-        <v>1.083371684233033e-06</v>
+        <v>7.704742495296521e-07</v>
       </c>
       <c r="N49" t="n">
-        <v>0.6155904170243701</v>
+        <v>0.4377967150860812</v>
       </c>
       <c r="O49" t="n">
-        <v>1.025015980334218</v>
+        <v>0.728972733640353</v>
       </c>
       <c r="P49" t="n">
-        <v>10.1645195334612</v>
+        <v>7.228821533135485</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.296398991317645e-07</v>
+        <v>9.219753981604061e-08</v>
       </c>
     </row>
     <row r="50">
@@ -3167,52 +3167,52 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4.270621069280573e-08</v>
+        <v>9.340668742661799e-08</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0002029999999999998</v>
+        <v>0.000443999999999946</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0004425649420204625</v>
+        <v>0.0009679745529904513</v>
       </c>
       <c r="E50" t="n">
-        <v>3.417005475171322e-10</v>
+        <v>7.473647443230954e-10</v>
       </c>
       <c r="F50" t="n">
-        <v>2.543316792318363e-08</v>
+        <v>5.562722442311413e-08</v>
       </c>
       <c r="G50" t="n">
-        <v>2.139634430847783e-07</v>
+        <v>4.679791563035965e-07</v>
       </c>
       <c r="H50" t="n">
-        <v>1.040690665607454e-14</v>
+        <v>2.276190421328345e-14</v>
       </c>
       <c r="I50" t="n">
-        <v>5.49848675846108e-13</v>
+        <v>1.202624690027795e-12</v>
       </c>
       <c r="J50" t="n">
-        <v>1.148278056603201e-07</v>
+        <v>2.511504714934776e-07</v>
       </c>
       <c r="K50" t="n">
-        <v>7.08055580596649e-06</v>
+        <v>1.548653585147163e-05</v>
       </c>
       <c r="L50" t="n">
-        <v>1.334508711424438e-11</v>
+        <v>2.918826935331916e-11</v>
       </c>
       <c r="M50" t="n">
-        <v>1.624634493762754e-13</v>
+        <v>3.55338775975653e-13</v>
       </c>
       <c r="N50" t="n">
-        <v>5.082715130275695e-08</v>
+        <v>1.111687447212875e-07</v>
       </c>
       <c r="O50" t="n">
-        <v>1.370422684397143e-05</v>
+        <v>2.997377693952009e-05</v>
       </c>
       <c r="P50" t="n">
-        <v>1.689235546305794e-05</v>
+        <v>3.694682672707792e-05</v>
       </c>
       <c r="Q50" t="n">
-        <v>3.176336497514838e-13</v>
+        <v>6.947258152199101e-13</v>
       </c>
     </row>
     <row r="51">
@@ -3222,52 +3222,52 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2.944500544288899</v>
+        <v>2.944500078489504</v>
       </c>
       <c r="C51" t="n">
-        <v>13590.992681</v>
+        <v>13590.990531</v>
       </c>
       <c r="D51" t="n">
-        <v>52281.31713203096</v>
+        <v>52281.3088614922</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01739687075675434</v>
+        <v>0.01739686800469105</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8872245970163314</v>
+        <v>0.8872244566636045</v>
       </c>
       <c r="G51" t="n">
-        <v>6.95766801582334</v>
+        <v>6.957666915168915</v>
       </c>
       <c r="H51" t="n">
-        <v>2.725171820854002e-07</v>
+        <v>2.725171389750878e-07</v>
       </c>
       <c r="I51" t="n">
-        <v>8.842570962428098e-06</v>
+        <v>8.842569563595209e-06</v>
       </c>
       <c r="J51" t="n">
-        <v>17.77718612388632</v>
+        <v>17.77718331165979</v>
       </c>
       <c r="K51" t="n">
-        <v>3525.962519610912</v>
+        <v>3525.961961828298</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0007749408649294929</v>
+        <v>0.0007749407423392673</v>
       </c>
       <c r="M51" t="n">
-        <v>2.283355443073699e-05</v>
+        <v>2.283355081862835e-05</v>
       </c>
       <c r="N51" t="n">
-        <v>2.801324339912008</v>
+        <v>2.801323896762087</v>
       </c>
       <c r="O51" t="n">
-        <v>116.1392757927711</v>
+        <v>116.1392574203498</v>
       </c>
       <c r="P51" t="n">
-        <v>3447.72916904162</v>
+        <v>3447.728623634976</v>
       </c>
       <c r="Q51" t="n">
-        <v>5.258871266357407e-05</v>
+        <v>5.258870434440748e-05</v>
       </c>
     </row>
     <row r="52">
@@ -3277,52 +3277,52 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.613070935332879e-07</v>
+        <v>2.336580693092383e-07</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0001359999999999998</v>
+        <v>0.0001969999999999916</v>
       </c>
       <c r="D52" t="n">
-        <v>0.001741515965864088</v>
+        <v>0.002522637097611846</v>
       </c>
       <c r="E52" t="n">
-        <v>2.145077676337544e-10</v>
+        <v>3.107208104694696e-10</v>
       </c>
       <c r="F52" t="n">
-        <v>4.602984443275032e-08</v>
+        <v>6.667558347978998e-08</v>
       </c>
       <c r="G52" t="n">
-        <v>8.046261973640845e-07</v>
+        <v>1.165524712358221e-06</v>
       </c>
       <c r="H52" t="n">
-        <v>1.563243643045904e-14</v>
+        <v>2.264404394706106e-14</v>
       </c>
       <c r="I52" t="n">
-        <v>6.531746513363965e-13</v>
+        <v>9.461426934798882e-13</v>
       </c>
       <c r="J52" t="n">
-        <v>6.509233491809542e-09</v>
+        <v>9.428816160929608e-09</v>
       </c>
       <c r="K52" t="n">
-        <v>1.459554422229143e-06</v>
+        <v>2.114207508670068e-06</v>
       </c>
       <c r="L52" t="n">
-        <v>1.522396746032788e-12</v>
+        <v>2.205236463003286e-12</v>
       </c>
       <c r="M52" t="n">
-        <v>2.229211986115195e-12</v>
+        <v>3.229079126946141e-12</v>
       </c>
       <c r="N52" t="n">
-        <v>1.184362793383008e-07</v>
+        <v>1.715584340415022e-07</v>
       </c>
       <c r="O52" t="n">
-        <v>3.656481115624042e-06</v>
+        <v>5.29652043954343e-06</v>
       </c>
       <c r="P52" t="n">
-        <v>2.312971556873326e-06</v>
+        <v>3.350407328706076e-06</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.506901959887505e-14</v>
+        <v>2.182791809542839e-14</v>
       </c>
     </row>
     <row r="53">
@@ -3387,52 +3387,52 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01790218086822307</v>
+        <v>0.01802965585667872</v>
       </c>
       <c r="C54" t="n">
-        <v>566.966157</v>
+        <v>571.003319</v>
       </c>
       <c r="D54" t="n">
-        <v>96.12049001500833</v>
+        <v>96.80492943862983</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0003134520428866626</v>
+        <v>0.0003156840220987206</v>
       </c>
       <c r="F54" t="n">
-        <v>0.002261887878567407</v>
+        <v>0.002277993968285233</v>
       </c>
       <c r="G54" t="n">
-        <v>0.02360732346122359</v>
+        <v>0.02377542271727736</v>
       </c>
       <c r="H54" t="n">
-        <v>1.262255606033303e-08</v>
+        <v>1.271243674022985e-08</v>
       </c>
       <c r="I54" t="n">
-        <v>1.237478491191875e-07</v>
+        <v>1.246290130261996e-07</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1559532474573543</v>
+        <v>0.1570637344178863</v>
       </c>
       <c r="K54" t="n">
-        <v>11.95212909699409</v>
+        <v>12.03723590771591</v>
       </c>
       <c r="L54" t="n">
-        <v>0.000111345606658608</v>
+        <v>0.0001121384586595945</v>
       </c>
       <c r="M54" t="n">
-        <v>2.496748199535819e-07</v>
+        <v>2.514526645092551e-07</v>
       </c>
       <c r="N54" t="n">
-        <v>0.01294529860138539</v>
+        <v>0.01303747741478883</v>
       </c>
       <c r="O54" t="n">
-        <v>2.173308312175889</v>
+        <v>2.188783658673864</v>
       </c>
       <c r="P54" t="n">
-        <v>27.74844725082845</v>
+        <v>27.94603395934173</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.0003384938779182544</v>
+        <v>0.0003409041710270973</v>
       </c>
     </row>
     <row r="55">
@@ -3607,52 +3607,52 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4.041871478277019e-08</v>
+        <v>8.520702035287034e-08</v>
       </c>
       <c r="C58" t="n">
-        <v>7.399999999999205e-05</v>
+        <v>0.0001559999999999896</v>
       </c>
       <c r="D58" t="n">
-        <v>0.001790370961271388</v>
+        <v>0.003774295539977673</v>
       </c>
       <c r="E58" t="n">
-        <v>6.401571804826673e-10</v>
+        <v>1.349520542639191e-09</v>
       </c>
       <c r="F58" t="n">
-        <v>2.36432410427111e-08</v>
+        <v>4.984250814409569e-08</v>
       </c>
       <c r="G58" t="n">
-        <v>1.864317096946677e-07</v>
+        <v>3.93018198815802e-07</v>
       </c>
       <c r="H58" t="n">
-        <v>6.505919582731306e-15</v>
+        <v>1.371518182305574e-14</v>
       </c>
       <c r="I58" t="n">
-        <v>4.919065298907164e-13</v>
+        <v>1.036992144093985e-12</v>
       </c>
       <c r="J58" t="n">
-        <v>8.935259797140683e-08</v>
+        <v>1.883649362640545e-07</v>
       </c>
       <c r="K58" t="n">
-        <v>8.987064732769426e-05</v>
+        <v>0.0001894570403124442</v>
       </c>
       <c r="L58" t="n">
-        <v>6.733390836167084e-11</v>
+        <v>1.419471581678524e-10</v>
       </c>
       <c r="M58" t="n">
-        <v>4.252978196553092e-13</v>
+        <v>8.965737819760936e-13</v>
       </c>
       <c r="N58" t="n">
-        <v>3.865378820061518e-08</v>
+        <v>8.148636431481369e-08</v>
       </c>
       <c r="O58" t="n">
-        <v>5.044149714289393e-06</v>
+        <v>1.06336129112051e-05</v>
       </c>
       <c r="P58" t="n">
-        <v>1.363575926330431e-05</v>
+        <v>2.874565466318323e-05</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.684183239936492e-13</v>
+        <v>5.658548451758239e-13</v>
       </c>
     </row>
     <row r="59">
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>6.999999999997419e-05</v>
+        <v>0.0001159999999999786</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -4102,52 +4102,52 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.607424729621985</v>
+        <v>2.607424527850545</v>
       </c>
       <c r="C67" t="n">
-        <v>12.922665</v>
+        <v>12.922664</v>
       </c>
       <c r="D67" t="n">
-        <v>1722.169995538789</v>
+        <v>1722.169862271387</v>
       </c>
       <c r="E67" t="n">
-        <v>0.009837569916565717</v>
+        <v>0.009837569155300924</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8776838597262904</v>
+        <v>0.8776837918081125</v>
       </c>
       <c r="G67" t="n">
-        <v>6.722479233885966</v>
+        <v>6.72247871367754</v>
       </c>
       <c r="H67" t="n">
-        <v>1.4627067520998e-07</v>
+        <v>1.46270663891055e-07</v>
       </c>
       <c r="I67" t="n">
-        <v>6.151199455255258e-07</v>
+        <v>6.151198979254413e-07</v>
       </c>
       <c r="J67" t="n">
-        <v>3.126135286484044</v>
+        <v>3.126135044573008</v>
       </c>
       <c r="K67" t="n">
-        <v>130.2254765112982</v>
+        <v>130.2254664340056</v>
       </c>
       <c r="L67" t="n">
-        <v>0.001751829878756653</v>
+        <v>0.001751829743194068</v>
       </c>
       <c r="M67" t="n">
-        <v>5.02868095718512e-06</v>
+        <v>5.028680568048595e-06</v>
       </c>
       <c r="N67" t="n">
-        <v>1.686175303780508</v>
+        <v>1.686175173298498</v>
       </c>
       <c r="O67" t="n">
-        <v>5129.384798735086</v>
+        <v>5129.384401805754</v>
       </c>
       <c r="P67" t="n">
-        <v>168.0479335910907</v>
+        <v>168.0479205869671</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.208895963778803e-06</v>
+        <v>1.208895870230301e-06</v>
       </c>
     </row>
     <row r="68">
@@ -4157,52 +4157,52 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>8.00413326925334e-05</v>
+        <v>8.004817032560128e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>0.011706</v>
+        <v>0.011707</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4208421815164272</v>
+        <v>0.4208781324972504</v>
       </c>
       <c r="E68" t="n">
-        <v>1.812422399019543e-06</v>
+        <v>1.812577227517666e-06</v>
       </c>
       <c r="F68" t="n">
-        <v>4.569843229238144e-05</v>
+        <v>4.570233613932253e-05</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0002489621170555876</v>
+        <v>0.0002489833849623923</v>
       </c>
       <c r="H68" t="n">
-        <v>8.410848621542396e-12</v>
+        <v>8.411567129027579e-12</v>
       </c>
       <c r="I68" t="n">
-        <v>2.635280187263485e-10</v>
+        <v>2.635505309439059e-10</v>
       </c>
       <c r="J68" t="n">
-        <v>0.001299426070086683</v>
+        <v>0.001299537075218247</v>
       </c>
       <c r="K68" t="n">
-        <v>-10.79554948977439</v>
+        <v>-10.7964717133768</v>
       </c>
       <c r="L68" t="n">
-        <v>1.582490978014373e-07</v>
+        <v>1.582626164327206e-07</v>
       </c>
       <c r="M68" t="n">
-        <v>7.248966253554781e-10</v>
+        <v>7.249585505754811e-10</v>
       </c>
       <c r="N68" t="n">
-        <v>0.0001309962389518349</v>
+        <v>0.0001310074294728457</v>
       </c>
       <c r="O68" t="n">
-        <v>0.02496083279004756</v>
+        <v>0.0249629651010667</v>
       </c>
       <c r="P68" t="n">
-        <v>0.2477535973397223</v>
+        <v>0.2477747620071868</v>
       </c>
       <c r="Q68" t="n">
-        <v>3.15947985916626e-09</v>
+        <v>3.159749761768273e-09</v>
       </c>
     </row>
     <row r="69">
@@ -4212,52 +4212,52 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5.000154566547551e-08</v>
+        <v>8.889163673866109e-08</v>
       </c>
       <c r="C69" t="n">
-        <v>2.69999999999834e-05</v>
+        <v>4.799999999999099e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>2.936207487525655e-05</v>
+        <v>5.219924422270059e-05</v>
       </c>
       <c r="E69" t="n">
-        <v>1.855682587205069e-10</v>
+        <v>3.298991266143754e-10</v>
       </c>
       <c r="F69" t="n">
-        <v>7.716048611241126e-09</v>
+        <v>1.371741975332342e-08</v>
       </c>
       <c r="G69" t="n">
-        <v>2.109352676620055e-07</v>
+        <v>3.74996031399281e-07</v>
       </c>
       <c r="H69" t="n">
-        <v>5.1513962248276e-15</v>
+        <v>9.158037733030755e-15</v>
       </c>
       <c r="I69" t="n">
-        <v>1.680908443896957e-14</v>
+        <v>2.988281678040312e-14</v>
       </c>
       <c r="J69" t="n">
-        <v>7.608208496965991e-08</v>
+        <v>1.352570399461198e-07</v>
       </c>
       <c r="K69" t="n">
-        <v>5.216951536871729e-06</v>
+        <v>9.274580509998146e-06</v>
       </c>
       <c r="L69" t="n">
-        <v>1.913269427235724e-11</v>
+        <v>3.40136787064274e-11</v>
       </c>
       <c r="M69" t="n">
-        <v>3.696549021888779e-13</v>
+        <v>6.571642705582857e-13</v>
       </c>
       <c r="N69" t="n">
-        <v>3.95118932434937e-09</v>
+        <v>7.024336576624101e-09</v>
       </c>
       <c r="O69" t="n">
-        <v>9.577283057321317e-07</v>
+        <v>1.702628099080072e-06</v>
       </c>
       <c r="P69" t="n">
-        <v>3.339469944018399e-05</v>
+        <v>5.936835456035244e-05</v>
       </c>
       <c r="Q69" t="n">
-        <v>7.440735271672676e-14</v>
+        <v>1.322797381631263e-13</v>
       </c>
     </row>
     <row r="70">
@@ -4267,52 +4267,52 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>96.47211811127906</v>
+        <v>96.47211806785731</v>
       </c>
       <c r="C70" t="n">
-        <v>11108.737679</v>
+        <v>11108.737674</v>
       </c>
       <c r="D70" t="n">
-        <v>247416.6938346575</v>
+        <v>247416.6937232961</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0567044168679097</v>
+        <v>0.05670441684238724</v>
       </c>
       <c r="F70" t="n">
-        <v>9.355098281775236</v>
+        <v>9.35509827756454</v>
       </c>
       <c r="G70" t="n">
-        <v>102.4294772556383</v>
+        <v>102.4294772095352</v>
       </c>
       <c r="H70" t="n">
-        <v>1.723677225679414e-06</v>
+        <v>1.723677224903593e-06</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0001062979691940006</v>
+        <v>0.0001062979691461563</v>
       </c>
       <c r="J70" t="n">
-        <v>2.133582200203828</v>
+        <v>2.13358219924351</v>
       </c>
       <c r="K70" t="n">
-        <v>368.7833038044344</v>
+        <v>368.7833036384463</v>
       </c>
       <c r="L70" t="n">
-        <v>8.58693165327521e-05</v>
+        <v>8.586931649410264e-05</v>
       </c>
       <c r="M70" t="n">
-        <v>0.00122429722482061</v>
+        <v>0.001224297224269558</v>
       </c>
       <c r="N70" t="n">
-        <v>30.53287414477274</v>
+        <v>30.53287413103001</v>
       </c>
       <c r="O70" t="n">
-        <v>8.873599947264875</v>
+        <v>8.8735999432709</v>
       </c>
       <c r="P70" t="n">
-        <v>89.70414435034255</v>
+        <v>89.70414430996703</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.501192113089185e-06</v>
+        <v>1.501192112413504e-06</v>
       </c>
     </row>
     <row r="71">
@@ -4322,28 +4322,28 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.05619986175577192</v>
+        <v>0.05570599350865895</v>
       </c>
       <c r="C71" t="n">
-        <v>177.853786</v>
+        <v>176.290858</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1559208777033815</v>
+        <v>0.154550689803377</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02834306565684424</v>
+        <v>0.02809399493466731</v>
       </c>
       <c r="G71" t="n">
-        <v>0.3103893743685988</v>
+        <v>0.3076617616760965</v>
       </c>
       <c r="H71" t="n">
-        <v>8.79287254513022e-09</v>
+        <v>8.715603306109268e-09</v>
       </c>
       <c r="I71" t="n">
-        <v>6.1377952622475e-08</v>
+        <v>6.083858079973326e-08</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -4355,10 +4355,10 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>2.060699628199287e-07</v>
+        <v>2.04259079160414e-07</v>
       </c>
       <c r="N71" t="n">
-        <v>0.08065797572636155</v>
+        <v>0.07994917659691229</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -4377,28 +4377,28 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>5.100143841053284e-07</v>
+        <v>6.19208064253188e-07</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0003829999999999912</v>
+        <v>0.0004649999999999761</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0001340637403552258</v>
+        <v>0.0001627666821545124</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1.004602395433487e-07</v>
+        <v>1.219686981400935e-07</v>
       </c>
       <c r="G72" t="n">
-        <v>1.109804466103645e-06</v>
+        <v>1.347412732997859e-06</v>
       </c>
       <c r="H72" t="n">
-        <v>1.20635657807612e-13</v>
+        <v>1.464636576515352e-13</v>
       </c>
       <c r="I72" t="n">
-        <v>5.541094590617386e-13</v>
+        <v>6.727438602185409e-13</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -4410,10 +4410,10 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>2.48092331932123e-12</v>
+        <v>3.012087058705847e-12</v>
       </c>
       <c r="N72" t="n">
-        <v>2.846604471523766e-07</v>
+        <v>3.45606025916061e-07</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -4432,52 +4432,52 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1.030926998158344</v>
+        <v>1.030926960080393</v>
       </c>
       <c r="C73" t="n">
-        <v>4900.415588999999</v>
+        <v>4900.415408</v>
       </c>
       <c r="D73" t="n">
-        <v>10683.50808385201</v>
+        <v>10683.50768924977</v>
       </c>
       <c r="E73" t="n">
-        <v>0.00824864379223051</v>
+        <v>0.00824864348756155</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6139561210267188</v>
+        <v>0.6139560983498549</v>
       </c>
       <c r="G73" t="n">
-        <v>5.165072866841195</v>
+        <v>5.165072676065908</v>
       </c>
       <c r="H73" t="n">
-        <v>2.512225005452986e-07</v>
+        <v>2.512224912662341e-07</v>
       </c>
       <c r="I73" t="n">
-        <v>1.327333508722797e-05</v>
+        <v>1.327333459696881e-05</v>
       </c>
       <c r="J73" t="n">
-        <v>2.771940733539427</v>
+        <v>2.771940631156015</v>
       </c>
       <c r="K73" t="n">
-        <v>170.9244633021808</v>
+        <v>170.9244569889759</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0003221501129616092</v>
+        <v>0.0003221501010627877</v>
       </c>
       <c r="M73" t="n">
-        <v>3.921864137764597e-06</v>
+        <v>3.921863992908025e-06</v>
       </c>
       <c r="N73" t="n">
-        <v>1.226966328022128</v>
+        <v>1.226966282703338</v>
       </c>
       <c r="O73" t="n">
-        <v>330.8197382334479</v>
+        <v>330.8197260144082</v>
       </c>
       <c r="P73" t="n">
-        <v>407.7810938231465</v>
+        <v>407.7810787614897</v>
       </c>
       <c r="Q73" t="n">
-        <v>7.66766940311891e-06</v>
+        <v>7.667669119908613e-06</v>
       </c>
     </row>
     <row r="74">
@@ -4487,52 +4487,52 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4.437616545386148e-07</v>
+        <v>4.852170957269094e-07</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0004709999999999913</v>
+        <v>0.0005149999999999629</v>
       </c>
       <c r="D74" t="n">
-        <v>0.006451896784665416</v>
+        <v>0.007054621749686859</v>
       </c>
       <c r="E74" t="n">
-        <v>6.74601881467181e-10</v>
+        <v>7.376220147676848e-10</v>
       </c>
       <c r="F74" t="n">
-        <v>2.136098892344295e-07</v>
+        <v>2.335649531968689e-07</v>
       </c>
       <c r="G74" t="n">
-        <v>2.43743209473389e-06</v>
+        <v>2.665132757511435e-06</v>
       </c>
       <c r="H74" t="n">
-        <v>5.235021555908737e-14</v>
+        <v>5.724068155611156e-14</v>
       </c>
       <c r="I74" t="n">
-        <v>3.006755168369155e-12</v>
+        <v>3.287641001507498e-12</v>
       </c>
       <c r="J74" t="n">
-        <v>2.038138532016271e-09</v>
+        <v>2.228537885325527e-09</v>
       </c>
       <c r="K74" t="n">
-        <v>1.012417778513844e-06</v>
+        <v>1.10699608478684e-06</v>
       </c>
       <c r="L74" t="n">
-        <v>5.194354353834732e-13</v>
+        <v>5.67960189432005e-13</v>
       </c>
       <c r="M74" t="n">
-        <v>1.099481100363786e-11</v>
+        <v>1.202192710588788e-11</v>
       </c>
       <c r="N74" t="n">
-        <v>5.78823563848017e-07</v>
+        <v>6.328962534643583e-07</v>
       </c>
       <c r="O74" t="n">
-        <v>1.568476670283422e-05</v>
+        <v>1.715001030139955e-05</v>
       </c>
       <c r="P74" t="n">
-        <v>3.704776949802954e-07</v>
+        <v>4.050870762523182e-07</v>
       </c>
       <c r="Q74" t="n">
-        <v>5.466000342067844e-15</v>
+        <v>5.976624577844562e-15</v>
       </c>
     </row>
     <row r="75">
@@ -4542,52 +4542,52 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6.6562930751105</v>
+        <v>6.658973984521412</v>
       </c>
       <c r="C75" t="n">
-        <v>7589.602418</v>
+        <v>7592.659229999999</v>
       </c>
       <c r="D75" t="n">
-        <v>329.1484254120262</v>
+        <v>329.2809942609812</v>
       </c>
       <c r="E75" t="n">
-        <v>0.001402974971792243</v>
+        <v>0.001403540038378511</v>
       </c>
       <c r="F75" t="n">
-        <v>3.454173627245148</v>
+        <v>3.455564841015292</v>
       </c>
       <c r="G75" t="n">
-        <v>37.63998840698542</v>
+        <v>37.65514840640375</v>
       </c>
       <c r="H75" t="n">
-        <v>6.3348457309686e-09</v>
+        <v>6.337397173242129e-09</v>
       </c>
       <c r="I75" t="n">
-        <v>2.211205723973628e-05</v>
+        <v>2.21209631610471e-05</v>
       </c>
       <c r="J75" t="n">
-        <v>0.9684420065987511</v>
+        <v>0.9688320593293201</v>
       </c>
       <c r="K75" t="n">
-        <v>460.3883576576994</v>
+        <v>460.5737851121086</v>
       </c>
       <c r="L75" t="n">
-        <v>0.0001179195197289413</v>
+        <v>0.0001179670133634019</v>
       </c>
       <c r="M75" t="n">
-        <v>1.96565496583959e-05</v>
+        <v>1.966446659179571e-05</v>
       </c>
       <c r="N75" t="n">
-        <v>11.16918946431443</v>
+        <v>11.17368800198536</v>
       </c>
       <c r="O75" t="n">
-        <v>18.59775164084409</v>
+        <v>18.60524212944385</v>
       </c>
       <c r="P75" t="n">
-        <v>184.42367090724</v>
+        <v>184.4979499615652</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.35216883741705e-06</v>
+        <v>2.353116204292446e-06</v>
       </c>
     </row>
     <row r="76">
@@ -4597,52 +4597,52 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7.657665365605045e-08</v>
+        <v>1.413722836727152e-07</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0003639999999999285</v>
+        <v>0.0006719999999998997</v>
       </c>
       <c r="D76" t="n">
-        <v>0.000793564723622743</v>
+        <v>0.00146504256668821</v>
       </c>
       <c r="E76" t="n">
-        <v>6.127044300305998e-10</v>
+        <v>1.131146640056546e-09</v>
       </c>
       <c r="F76" t="n">
-        <v>4.560430110363069e-08</v>
+        <v>8.419255588362987e-08</v>
       </c>
       <c r="G76" t="n">
-        <v>3.836585876002171e-07</v>
+        <v>7.082927771081265e-07</v>
       </c>
       <c r="H76" t="n">
-        <v>1.866066021088863e-14</v>
+        <v>3.445044962010372e-14</v>
       </c>
       <c r="I76" t="n">
-        <v>9.859355566893799e-13</v>
+        <v>1.820188720042019e-12</v>
       </c>
       <c r="J76" t="n">
-        <v>2.058981342874302e-07</v>
+        <v>3.801196325306583e-07</v>
       </c>
       <c r="K76" t="n">
-        <v>1.26961690313857e-05</v>
+        <v>2.343908128871318e-05</v>
       </c>
       <c r="L76" t="n">
-        <v>2.392912172208869e-11</v>
+        <v>4.417684010231967e-11</v>
       </c>
       <c r="M76" t="n">
-        <v>2.913137712953333e-13</v>
+        <v>5.378100393144869e-13</v>
       </c>
       <c r="N76" t="n">
-        <v>9.113834026699461e-08</v>
+        <v>1.68255397415998e-07</v>
       </c>
       <c r="O76" t="n">
-        <v>2.457309640987499e-05</v>
+        <v>4.536571644900213e-05</v>
       </c>
       <c r="P76" t="n">
-        <v>3.028974083030485e-05</v>
+        <v>5.591952153287315e-05</v>
       </c>
       <c r="Q76" t="n">
-        <v>5.695499926577215e-13</v>
+        <v>1.051476909521997e-12</v>
       </c>
     </row>
     <row r="77">
@@ -4652,52 +4652,52 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2.271546061259872e-07</v>
+        <v>3.438015660285172e-07</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0001849999999999693</v>
+        <v>0.0002799999999999503</v>
       </c>
       <c r="D77" t="n">
-        <v>0.002986119614491241</v>
+        <v>0.004519532389500205</v>
       </c>
       <c r="E77" t="n">
-        <v>3.205049111886925e-10</v>
+        <v>4.850885142315291e-10</v>
       </c>
       <c r="F77" t="n">
-        <v>1.111980760450215e-07</v>
+        <v>1.682997907708415e-07</v>
       </c>
       <c r="G77" t="n">
-        <v>1.258068888651552e-06</v>
+        <v>1.90410426390503e-06</v>
       </c>
       <c r="H77" t="n">
-        <v>2.25718568040716e-14</v>
+        <v>3.416281029805392e-14</v>
       </c>
       <c r="I77" t="n">
-        <v>1.410338030002012e-12</v>
+        <v>2.134565667030048e-12</v>
       </c>
       <c r="J77" t="n">
-        <v>3.900639573133808e-09</v>
+        <v>5.903670705283533e-09</v>
       </c>
       <c r="K77" t="n">
-        <v>1.455543946639798e-06</v>
+        <v>2.202985432752102e-06</v>
       </c>
       <c r="L77" t="n">
-        <v>9.936714948982868e-13</v>
+        <v>1.503935235521714e-12</v>
       </c>
       <c r="M77" t="n">
-        <v>2.117437714456892e-11</v>
+        <v>3.204770594853637e-11</v>
       </c>
       <c r="N77" t="n">
-        <v>3.008466680926618e-07</v>
+        <v>4.553354976537532e-07</v>
       </c>
       <c r="O77" t="n">
-        <v>4.809697472373539e-06</v>
+        <v>7.279542120349056e-06</v>
       </c>
       <c r="P77" t="n">
-        <v>1.228607030105605e-06</v>
+        <v>1.859513342862516e-06</v>
       </c>
       <c r="Q77" t="n">
-        <v>9.865024584340309e-15</v>
+        <v>1.493084801954192e-14</v>
       </c>
     </row>
     <row r="78">
@@ -4817,52 +4817,52 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7.135743257687108e-09</v>
+        <v>1.427148651537716e-08</v>
       </c>
       <c r="C80" t="n">
-        <v>9.999999999995938e-07</v>
+        <v>1.999999999999599e-06</v>
       </c>
       <c r="D80" t="n">
-        <v>7.506270625705954e-05</v>
+        <v>0.00015012541251415</v>
       </c>
       <c r="E80" t="n">
-        <v>4.930940721091256e-10</v>
+        <v>9.861881442184543e-10</v>
       </c>
       <c r="F80" t="n">
-        <v>2.059182082140055e-09</v>
+        <v>4.118364164280958e-09</v>
       </c>
       <c r="G80" t="n">
-        <v>2.281565748332834e-08</v>
+        <v>4.563131496666608e-08</v>
       </c>
       <c r="H80" t="n">
-        <v>6.54987237570681e-16</v>
+        <v>1.309974475141632e-15</v>
       </c>
       <c r="I80" t="n">
-        <v>2.2008452039066e-14</v>
+        <v>4.401690407814106e-14</v>
       </c>
       <c r="J80" t="n">
-        <v>6.100232182672713e-09</v>
+        <v>1.220046436534794e-08</v>
       </c>
       <c r="K80" t="n">
-        <v>1.017917742246697e-06</v>
+        <v>2.035835484493813e-06</v>
       </c>
       <c r="L80" t="n">
-        <v>6.168135409765606e-11</v>
+        <v>1.233627081953375e-10</v>
       </c>
       <c r="M80" t="n">
-        <v>9.372734178974028e-15</v>
+        <v>1.874546835795192e-14</v>
       </c>
       <c r="N80" t="n">
-        <v>9.983318404343011e-09</v>
+        <v>1.996663680869013e-08</v>
       </c>
       <c r="O80" t="n">
-        <v>4.857683672910031e-06</v>
+        <v>9.715367345822063e-06</v>
       </c>
       <c r="P80" t="n">
-        <v>4.577174649916583e-07</v>
+        <v>9.154349299835051e-07</v>
       </c>
       <c r="Q80" t="n">
-        <v>9.478835742461335e-15</v>
+        <v>1.895767148492658e-14</v>
       </c>
     </row>
     <row r="81">
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0002439999999999909</v>
+        <v>0.0003619999999999894</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -5257,52 +5257,52 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3.173279593959078e-08</v>
+        <v>4.231039458611112e-08</v>
       </c>
       <c r="C88" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.0001199999999999719</v>
       </c>
       <c r="D88" t="n">
-        <v>0.00142608225598881</v>
+        <v>0.001901443007984634</v>
       </c>
       <c r="E88" t="n">
-        <v>7.791426357416851e-10</v>
+        <v>1.038856847655336e-09</v>
       </c>
       <c r="F88" t="n">
-        <v>4.981747907812578e-09</v>
+        <v>6.642330543748546e-09</v>
       </c>
       <c r="G88" t="n">
-        <v>4.984499235540821e-08</v>
+        <v>6.645998980719536e-08</v>
       </c>
       <c r="H88" t="n">
-        <v>2.225960283617632e-15</v>
+        <v>2.967947044822813e-15</v>
       </c>
       <c r="I88" t="n">
-        <v>5.743067615760875e-14</v>
+        <v>7.657423487679371e-14</v>
       </c>
       <c r="J88" t="n">
-        <v>8.710196770572979e-07</v>
+        <v>1.161359569409458e-06</v>
       </c>
       <c r="K88" t="n">
-        <v>3.571561976884636e-05</v>
+        <v>4.762082635845064e-05</v>
       </c>
       <c r="L88" t="n">
-        <v>7.177089174313284e-11</v>
+        <v>9.569452232415468e-11</v>
       </c>
       <c r="M88" t="n">
-        <v>2.299209714440808e-13</v>
+        <v>3.065612952587024e-13</v>
       </c>
       <c r="N88" t="n">
-        <v>1.196550256563637e-08</v>
+        <v>1.595400342084476e-08</v>
       </c>
       <c r="O88" t="n">
-        <v>1.151366177982502e-05</v>
+        <v>1.535154903976309e-05</v>
       </c>
       <c r="P88" t="n">
-        <v>2.973955938420003e-05</v>
+        <v>3.965274584559074e-05</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.418048395261793e-13</v>
+        <v>3.224064527014968e-13</v>
       </c>
     </row>
     <row r="89">
@@ -5312,52 +5312,52 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1.231310492811417e-06</v>
+        <v>1.688670968981993e-06</v>
       </c>
       <c r="C89" t="n">
-        <v>0.01060999999999998</v>
+        <v>0.01455099999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0184144353274729</v>
+        <v>0.02525433067389805</v>
       </c>
       <c r="E89" t="n">
-        <v>2.21112906233489e-08</v>
+        <v>3.032435342698869e-08</v>
       </c>
       <c r="F89" t="n">
-        <v>2.806695973634122e-07</v>
+        <v>3.849220839995301e-07</v>
       </c>
       <c r="G89" t="n">
-        <v>3.086671472524555e-06</v>
+        <v>4.233191008171992e-06</v>
       </c>
       <c r="H89" t="n">
-        <v>1.726976422905528e-13</v>
+        <v>2.368448061234529e-13</v>
       </c>
       <c r="I89" t="n">
-        <v>3.478310611305296e-12</v>
+        <v>4.770301385966389e-12</v>
       </c>
       <c r="J89" t="n">
-        <v>1.985785616889953e-06</v>
+        <v>2.723389869120237e-06</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0001794505513896197</v>
+        <v>0.0002461060295259527</v>
       </c>
       <c r="L89" t="n">
-        <v>6.444310128051863e-09</v>
+        <v>8.837997801440406e-09</v>
       </c>
       <c r="M89" t="n">
-        <v>4.930059977720692e-12</v>
+        <v>6.761291492536648e-12</v>
       </c>
       <c r="N89" t="n">
-        <v>8.379621201020472e-07</v>
+        <v>1.149216475928831e-06</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0005000489537951352</v>
+        <v>0.0006857881552000958</v>
       </c>
       <c r="P89" t="n">
-        <v>0.0001746728319161195</v>
+        <v>0.0002395536642046613</v>
       </c>
       <c r="Q89" t="n">
-        <v>4.109829421782037e-12</v>
+        <v>5.636392829062248e-12</v>
       </c>
     </row>
     <row r="90">
@@ -5422,52 +5422,52 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>9.265238481124334e-09</v>
+        <v>1.853047696224867e-08</v>
       </c>
       <c r="C91" t="n">
-        <v>9.999999999999623e-07</v>
+        <v>1.999999999999925e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0006548671113957783</v>
+        <v>0.001309734222791557</v>
       </c>
       <c r="E91" t="n">
-        <v>1.679648642736961e-09</v>
+        <v>3.359297285473923e-09</v>
       </c>
       <c r="F91" t="n">
-        <v>3.39569027019691e-08</v>
+        <v>6.791380540393821e-08</v>
       </c>
       <c r="G91" t="n">
-        <v>2.660363172409795e-08</v>
+        <v>5.32072634481959e-08</v>
       </c>
       <c r="H91" t="n">
-        <v>8.235427831918519e-15</v>
+        <v>1.647085566383704e-14</v>
       </c>
       <c r="I91" t="n">
-        <v>1.926779500370655e-13</v>
+        <v>3.853559000741311e-13</v>
       </c>
       <c r="J91" t="n">
-        <v>9.578262160722558e-08</v>
+        <v>1.915652432144512e-07</v>
       </c>
       <c r="K91" t="n">
-        <v>1.682628503424302e-05</v>
+        <v>3.365257006848604e-05</v>
       </c>
       <c r="L91" t="n">
-        <v>2.413294480827234e-11</v>
+        <v>4.826588961654469e-11</v>
       </c>
       <c r="M91" t="n">
-        <v>1.750118328688673e-13</v>
+        <v>3.500236657377345e-13</v>
       </c>
       <c r="N91" t="n">
-        <v>4.104682238672564e-09</v>
+        <v>8.209364477345127e-09</v>
       </c>
       <c r="O91" t="n">
-        <v>7.500718571636979e-06</v>
+        <v>1.500143714327396e-05</v>
       </c>
       <c r="P91" t="n">
-        <v>8.016254354946409e-06</v>
+        <v>1.603250870989282e-05</v>
       </c>
       <c r="Q91" t="n">
-        <v>7.355158892053824e-14</v>
+        <v>1.471031778410765e-13</v>
       </c>
     </row>
     <row r="92">
@@ -5477,28 +5477,28 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.5573244697953363</v>
+        <v>0.5573244821826082</v>
       </c>
       <c r="C92" t="n">
-        <v>44.991704</v>
+        <v>44.991705</v>
       </c>
       <c r="D92" t="n">
-        <v>27.21708598194327</v>
+        <v>27.21708658687893</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2870262396182485</v>
+        <v>0.2870262459977855</v>
       </c>
       <c r="G92" t="n">
-        <v>3.146606377083642</v>
+        <v>3.146606447021122</v>
       </c>
       <c r="H92" t="n">
-        <v>4.279411210132049e-10</v>
+        <v>4.279411305247611e-10</v>
       </c>
       <c r="I92" t="n">
-        <v>2.354236072547741e-07</v>
+        <v>2.354236124873745e-07</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -5510,10 +5510,10 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>3.111891237740928e-05</v>
+        <v>3.111891306906818e-05</v>
       </c>
       <c r="N92" t="n">
-        <v>0.817243875777532</v>
+        <v>0.8172438939418558</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
@@ -5642,52 +5642,52 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>8.294345875523085</v>
+        <v>10.77187650897563</v>
       </c>
       <c r="C95" t="n">
-        <v>4156.848479</v>
+        <v>5398.503891</v>
       </c>
       <c r="D95" t="n">
-        <v>13704.10246242472</v>
+        <v>17797.53359782314</v>
       </c>
       <c r="E95" t="n">
-        <v>1.21804673870028e-05</v>
+        <v>1.581878697651063e-05</v>
       </c>
       <c r="F95" t="n">
-        <v>4.14989517244747</v>
+        <v>5.38947362379907</v>
       </c>
       <c r="G95" t="n">
-        <v>46.32612397467701</v>
+        <v>60.1637903800636</v>
       </c>
       <c r="H95" t="n">
-        <v>2.880695230797093e-07</v>
+        <v>3.741162202761937e-07</v>
       </c>
       <c r="I95" t="n">
-        <v>9.138082763789395e-05</v>
+        <v>0.0001186763857422696</v>
       </c>
       <c r="J95" t="n">
-        <v>0.006060204384242342</v>
+        <v>0.007870394389852268</v>
       </c>
       <c r="K95" t="n">
-        <v>0.464449098275052</v>
+        <v>0.603180577034766</v>
       </c>
       <c r="L95" t="n">
-        <v>4.326791167482024e-06</v>
+        <v>5.619208655595584e-06</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0005529295038670633</v>
+        <v>0.0007180901813368792</v>
       </c>
       <c r="N95" t="n">
-        <v>10.91684931432566</v>
+        <v>14.17772473511603</v>
       </c>
       <c r="O95" t="n">
-        <v>0.08445282657778752</v>
+        <v>0.1096789828133964</v>
       </c>
       <c r="P95" t="n">
-        <v>1.0782799616364</v>
+        <v>1.400363423850801</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.315357080691981e-05</v>
+        <v>1.70825575049065e-05</v>
       </c>
     </row>
     <row r="96">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2.841720778710707</v>
+        <v>7.966110263248937e-09</v>
       </c>
       <c r="C98" t="n">
-        <v>1426.905069</v>
+        <v>4.000000000000001e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>4211.066340605919</v>
+        <v>1.180475543073684e-05</v>
       </c>
       <c r="E98" t="n">
-        <v>3.742616482325124e-06</v>
+        <v>1.04915640532359e-14</v>
       </c>
       <c r="F98" t="n">
-        <v>1.424831682533153</v>
+        <v>3.994187738170137e-09</v>
       </c>
       <c r="G98" t="n">
-        <v>15.90517482203411</v>
+        <v>4.458649749749851e-08</v>
       </c>
       <c r="H98" t="n">
-        <v>9.090232354179276e-08</v>
+        <v>2.548237455081682e-16</v>
       </c>
       <c r="I98" t="n">
-        <v>2.814221122098872e-05</v>
+        <v>7.889021304188449e-14</v>
       </c>
       <c r="J98" t="n">
-        <v>0.001862081322012832</v>
+        <v>5.219916482090323e-12</v>
       </c>
       <c r="K98" t="n">
-        <v>0.1427083867290725</v>
+        <v>4.000501219862792e-10</v>
       </c>
       <c r="L98" t="n">
-        <v>1.329466220341949e-06</v>
+        <v>3.726852610520649e-15</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0001711306238331545</v>
+        <v>4.797253231515559e-13</v>
       </c>
       <c r="N98" t="n">
-        <v>3.747957043060062</v>
+        <v>1.050653508628068e-08</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02594929493971972</v>
+        <v>7.274287688361902e-11</v>
       </c>
       <c r="P98" t="n">
-        <v>0.3313163796397072</v>
+        <v>9.2876922743543e-10</v>
       </c>
       <c r="Q98" t="n">
-        <v>4.04161591992261e-06</v>
+        <v>1.132974017046571e-14</v>
       </c>
     </row>
     <row r="99">
@@ -5862,52 +5862,52 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1.567739217843391e-07</v>
+        <v>4.061500564361216e-09</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0001929999999999953</v>
+        <v>5e-06</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0006024423513711735</v>
+        <v>1.560731480236239e-05</v>
       </c>
       <c r="E99" t="n">
-        <v>5.272012991828697e-13</v>
+        <v>1.365806474567053e-14</v>
       </c>
       <c r="F99" t="n">
-        <v>3.980742667219669e-08</v>
+        <v>1.031280483735691e-09</v>
       </c>
       <c r="G99" t="n">
-        <v>7.592029640522702e-07</v>
+        <v>1.966847057130282e-08</v>
       </c>
       <c r="H99" t="n">
-        <v>1.0003590511873e-14</v>
+        <v>2.591603759552654e-16</v>
       </c>
       <c r="I99" t="n">
-        <v>3.996016515348601e-12</v>
+        <v>1.035237439209507e-13</v>
       </c>
       <c r="J99" t="n">
-        <v>2.623009054722697e-10</v>
+        <v>6.795360245395753e-12</v>
       </c>
       <c r="K99" t="n">
-        <v>2.010252646595452e-08</v>
+        <v>5.207908410869175e-10</v>
       </c>
       <c r="L99" t="n">
-        <v>1.872744166798995e-13</v>
+        <v>4.85166882590425e-15</v>
       </c>
       <c r="M99" t="n">
-        <v>2.363922006560273e-11</v>
+        <v>6.124150276063033e-13</v>
       </c>
       <c r="N99" t="n">
-        <v>1.08864693137215e-07</v>
+        <v>2.820328837751753e-09</v>
       </c>
       <c r="O99" t="n">
-        <v>3.655330988282456e-09</v>
+        <v>9.469769399695713e-11</v>
       </c>
       <c r="P99" t="n">
-        <v>4.667067187127424e-08</v>
+        <v>1.209084763504544e-09</v>
       </c>
       <c r="Q99" t="n">
-        <v>5.693196654917819e-13</v>
+        <v>1.474921413191181e-14</v>
       </c>
     </row>
     <row r="100">
@@ -6632,52 +6632,52 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1.367526613574799e-08</v>
+        <v>2.051289920362207e-08</v>
       </c>
       <c r="C113" t="n">
-        <v>1.999999999999989e-06</v>
+        <v>2.999999999999996e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>7.190196164640772e-05</v>
+        <v>0.000107852942469612</v>
       </c>
       <c r="E113" t="n">
-        <v>3.0965699624458e-10</v>
+        <v>4.64485494366872e-10</v>
       </c>
       <c r="F113" t="n">
-        <v>7.807693882176866e-09</v>
+        <v>1.171154082326535e-08</v>
       </c>
       <c r="G113" t="n">
-        <v>4.253581360936046e-08</v>
+        <v>6.380372041404096e-08</v>
       </c>
       <c r="H113" t="n">
-        <v>1.437014970364319e-15</v>
+        <v>2.155522455546488e-15</v>
       </c>
       <c r="I113" t="n">
-        <v>4.502443511470124e-14</v>
+        <v>6.753665267205216e-14</v>
       </c>
       <c r="J113" t="n">
-        <v>2.220102631277425e-07</v>
+        <v>3.330153946916152e-07</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0001056374246742366</v>
+        <v>0.0001584561370113555</v>
       </c>
       <c r="L113" t="n">
-        <v>2.703726256645053e-11</v>
+        <v>4.055589384967597e-11</v>
       </c>
       <c r="M113" t="n">
-        <v>1.238504400060608e-13</v>
+        <v>1.85775660009092e-13</v>
       </c>
       <c r="N113" t="n">
-        <v>2.238104202149912e-08</v>
+        <v>3.357156303224883e-08</v>
       </c>
       <c r="O113" t="n">
-        <v>4.264622038279099e-06</v>
+        <v>6.396933057418675e-06</v>
       </c>
       <c r="P113" t="n">
-        <v>4.232933492904854e-05</v>
+        <v>6.349400239357309e-05</v>
       </c>
       <c r="Q113" t="n">
-        <v>5.398052040263531e-13</v>
+        <v>8.097078060395332e-13</v>
       </c>
     </row>
     <row r="114">
@@ -6687,52 +6687,52 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.01839494919848121</v>
+        <v>0.0183933765428756</v>
       </c>
       <c r="C114" t="n">
-        <v>2.690251</v>
+        <v>2.690021</v>
       </c>
       <c r="D114" t="n">
-        <v>96.71716211060587</v>
+        <v>96.70889338501654</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0004165275219019942</v>
+        <v>0.0004164919113474261</v>
       </c>
       <c r="F114" t="n">
-        <v>0.01050232813711018</v>
+        <v>0.01050143025231373</v>
       </c>
       <c r="G114" t="n">
-        <v>0.05721600754919815</v>
+        <v>0.05721111593063308</v>
       </c>
       <c r="H114" t="n">
-        <v>1.93296548051879e-09</v>
+        <v>1.932800223797198e-09</v>
       </c>
       <c r="I114" t="n">
-        <v>6.056351579588085e-08</v>
+        <v>6.055833798584267e-08</v>
       </c>
       <c r="J114" t="n">
-        <v>0.2986316661948381</v>
+        <v>0.2986061350145784</v>
       </c>
       <c r="K114" t="n">
-        <v>142.095593683646</v>
+        <v>142.0834453798084</v>
       </c>
       <c r="L114" t="n">
-        <v>3.636851132832909e-05</v>
+        <v>3.636540204313395e-05</v>
       </c>
       <c r="M114" t="n">
-        <v>1.665943850383736e-07</v>
+        <v>1.665801422377729e-07</v>
       </c>
       <c r="N114" t="n">
-        <v>0.03010531033969021</v>
+        <v>0.03010273651985775</v>
       </c>
       <c r="O114" t="n">
-        <v>5.736451851551202</v>
+        <v>5.7359614200168</v>
       </c>
       <c r="P114" t="n">
-        <v>56.93826781110421</v>
+        <v>56.93339993758737</v>
       </c>
       <c r="Q114" t="n">
-        <v>7.261057449685544e-07</v>
+        <v>7.260436673700914e-07</v>
       </c>
     </row>
   </sheetData>
